--- a/serving/experiments/data/result_vm1.xlsx
+++ b/serving/experiments/data/result_vm1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyowonlee/Desktop/Inferencing-CPU-for-network-performance-in-virtualized-environments/serving/experiments/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyowon Lee\Desktop\Inferencing-CPU-for-network-performance-in-virtualized-environments\serving\experiments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5D2181-0B1A-6542-8460-99AE16A3A6EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C9D47-B8C5-409F-B64B-E345FCD887CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
+    <workbookView xWindow="990" yWindow="2160" windowWidth="11625" windowHeight="11565" firstSheet="3" activeTab="4" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
   </bookViews>
   <sheets>
     <sheet name="slo_throughput" sheetId="1" r:id="rId1"/>
     <sheet name="slo_throughput_확인용" sheetId="6" r:id="rId2"/>
     <sheet name="cpu_usage" sheetId="3" r:id="rId3"/>
     <sheet name="cpu_quota" sheetId="2" r:id="rId4"/>
+    <sheet name="cpu70_pkt64,1024" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>SLO</t>
   </si>
@@ -109,12 +110,36 @@
     <t>95% 이상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pkt_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandwidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,12 +505,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -493,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>319.12</v>
       </c>
@@ -505,7 +530,7 @@
         <v>94.036725996490347</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>319.27</v>
       </c>
@@ -517,7 +542,7 @@
         <v>93.992545494409114</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>346.07</v>
       </c>
@@ -530,7 +555,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>319.04000000000002</v>
       </c>
@@ -543,7 +568,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>347.05</v>
       </c>
@@ -555,7 +580,7 @@
         <v>87.935455986169146</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>347.25</v>
       </c>
@@ -567,7 +592,7 @@
         <v>84.262059035277176</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>311.01</v>
       </c>
@@ -579,7 +604,7 @@
         <v>94.080576187260874</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>308.95999999999998</v>
       </c>
@@ -591,7 +616,7 @@
         <v>94.704816157431395</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>346.96</v>
       </c>
@@ -603,7 +628,7 @@
         <v>80.502075167166254</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>409.24</v>
       </c>
@@ -615,7 +640,7 @@
         <v>88.10477959143779</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>418.72</v>
       </c>
@@ -627,7 +652,7 @@
         <v>119.78410393580434</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>421.65</v>
       </c>
@@ -639,7 +664,7 @@
         <v>121.87122020633228</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>424.09</v>
       </c>
@@ -651,7 +676,7 @@
         <v>121.17003466245373</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>386.58</v>
       </c>
@@ -663,7 +688,7 @@
         <v>92.30948316001863</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>426.57</v>
       </c>
@@ -675,7 +700,7 @@
         <v>103.74616123965585</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>443</v>
       </c>
@@ -687,7 +712,7 @@
         <v>101.14221218961626</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>527.83000000000004</v>
       </c>
@@ -699,7 +724,7 @@
         <v>92.025841653562694</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>428.38</v>
       </c>
@@ -711,7 +736,7 @@
         <v>95.765441897380839</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>408.74</v>
       </c>
@@ -723,7 +748,7 @@
         <v>98.182218525223846</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>389.19</v>
       </c>
@@ -735,7 +760,7 @@
         <v>93.208972481307327</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>404.32</v>
       </c>
@@ -747,7 +772,7 @@
         <v>111.88415116739216</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>694.83</v>
       </c>
@@ -759,7 +784,7 @@
         <v>89.345595325475273</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>964.53</v>
       </c>
@@ -771,7 +796,7 @@
         <v>77.425274486019092</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>423.51</v>
       </c>
@@ -783,7 +808,7 @@
         <v>110.52159335080636</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>996.92</v>
       </c>
@@ -795,7 +820,7 @@
         <v>75.866669341572049</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>977.52</v>
       </c>
@@ -807,7 +832,7 @@
         <v>73.622023078811679</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>737.48</v>
       </c>
@@ -819,7 +844,7 @@
         <v>89.880403536367098</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>487</v>
       </c>
@@ -831,7 +856,7 @@
         <v>105.59958932238193</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>546.25</v>
       </c>
@@ -843,7 +868,7 @@
         <v>110.41098398169336</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>706.58</v>
       </c>
@@ -855,7 +880,7 @@
         <v>93.989357185315185</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>407.64</v>
       </c>
@@ -867,7 +892,7 @@
         <v>123.59189480914532</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>375.98</v>
       </c>
@@ -879,7 +904,7 @@
         <v>132.31288898345656</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>668.27</v>
       </c>
@@ -891,7 +916,7 @@
         <v>101.93933589716733</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404.72</v>
       </c>
@@ -903,7 +928,7 @@
         <v>115.94188574817157</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>679.74</v>
       </c>
@@ -915,7 +940,7 @@
         <v>105.97140082972902</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>576.71</v>
       </c>
@@ -927,7 +952,7 @@
         <v>115.46704582892613</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>571.39</v>
       </c>
@@ -939,7 +964,7 @@
         <v>117.39792435989429</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>896.73</v>
       </c>
@@ -951,7 +976,7 @@
         <v>92.389013415409309</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>582.55999999999995</v>
       </c>
@@ -963,7 +988,7 @@
         <v>121.77286459763801</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1240</v>
       </c>
@@ -975,7 +1000,7 @@
         <v>75.29435483870968</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>906.36</v>
       </c>
@@ -987,7 +1012,7 @@
         <v>93.332671344719529</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>685.02</v>
       </c>
@@ -999,7 +1024,7 @@
         <v>108.92236723015387</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1320</v>
       </c>
@@ -1011,7 +1036,7 @@
         <v>72.063636363636363</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>405.91</v>
       </c>
@@ -1023,7 +1048,7 @@
         <v>115.13636027690868</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>591.39</v>
       </c>
@@ -1035,7 +1060,7 @@
         <v>127.1580513705</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>633.29</v>
       </c>
@@ -1047,7 +1072,7 @@
         <v>127.55451688799759</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>815.01</v>
       </c>
@@ -1059,7 +1084,7 @@
         <v>110.70416313910259</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1070</v>
       </c>
@@ -1071,7 +1096,7 @@
         <v>99.925233644859816</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1090</v>
       </c>
@@ -1083,7 +1108,7 @@
         <v>92.299082568807336</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>569.80999999999995</v>
       </c>
@@ -1095,7 +1120,7 @@
         <v>132.83199663045576</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>608.72</v>
       </c>
@@ -1107,7 +1132,7 @@
         <v>123.20771454856092</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1350</v>
       </c>
@@ -1119,7 +1144,7 @@
         <v>87.111851851851853</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>759.28</v>
       </c>
@@ -1131,7 +1156,7 @@
         <v>149.91570961963967</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1870</v>
       </c>
@@ -1143,7 +1168,7 @@
         <v>80.326737967914426</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>585.29</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>124.5724341779289</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>866.55</v>
       </c>
@@ -1167,7 +1192,7 @@
         <v>133.06675898678668</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>359.44</v>
       </c>
@@ -1179,7 +1204,7 @@
         <v>123.26953038059203</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>876.26</v>
       </c>
@@ -1191,7 +1216,7 @@
         <v>126.36774473329832</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>376.4</v>
       </c>
@@ -1203,7 +1228,7 @@
         <v>114.84856535600427</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1520</v>
       </c>
@@ -1215,7 +1240,7 @@
         <v>103.91710526315789</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>363.63</v>
       </c>
@@ -1227,7 +1252,7 @@
         <v>121.14787008772655</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>552.80999999999995</v>
       </c>
@@ -1239,7 +1264,7 @@
         <v>132.80331397767767</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>375.23</v>
       </c>
@@ -1251,7 +1276,7 @@
         <v>115.61708818591264</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>369.82</v>
       </c>
@@ -1263,7 +1288,7 @@
         <v>117.57611811151372</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>549.6</v>
       </c>
@@ -1275,7 +1300,7 @@
         <v>132.69832605531292</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>539.80999999999995</v>
       </c>
@@ -1287,7 +1312,7 @@
         <v>136.57212722995129</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>376.92</v>
       </c>
@@ -1299,7 +1324,7 @@
         <v>116.67197283243127</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>365.73</v>
       </c>
@@ -1311,7 +1336,7 @@
         <v>120.80496541164246</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1810</v>
       </c>
@@ -1323,7 +1348,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1810</v>
       </c>
@@ -1335,7 +1360,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1790</v>
       </c>
@@ -1347,7 +1372,7 @@
         <v>81.232960893854738</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1720</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>82.633139534883711</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1780</v>
       </c>
@@ -1371,7 +1396,7 @@
         <v>83.661797752808994</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>982.06</v>
       </c>
@@ -1383,7 +1408,7 @@
         <v>114.28222308209274</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>552.57000000000005</v>
       </c>
@@ -1395,7 +1420,7 @@
         <v>131.89641131440359</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1770</v>
       </c>
@@ -1407,7 +1432,7 @@
         <v>83.55367231638418</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>369.33</v>
       </c>
@@ -1419,7 +1444,7 @@
         <v>117.86748977878862</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>570.09</v>
       </c>
@@ -1431,7 +1456,7 @@
         <v>124.75398621270327</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>375.68</v>
       </c>
@@ -1443,7 +1468,7 @@
         <v>115.90183134582624</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>366.16</v>
       </c>
@@ -1455,7 +1480,7 @@
         <v>121.03178938169106</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>368.89</v>
       </c>
@@ -1467,7 +1492,7 @@
         <v>119.9734338149584</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>560.67999999999995</v>
       </c>
@@ -1479,7 +1504,7 @@
         <v>130.98202183063424</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>566.5</v>
       </c>
@@ -1491,7 +1516,7 @@
         <v>125.95057369814651</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>344.72</v>
       </c>
@@ -1503,7 +1528,7 @@
         <v>125.80064980273846</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2940</v>
       </c>
@@ -1515,7 +1540,7 @@
         <v>63.354081632653056</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2860</v>
       </c>
@@ -1527,7 +1552,7 @@
         <v>67.05489510489511</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>835.74</v>
       </c>
@@ -1539,7 +1564,7 @@
         <v>132.68002010194556</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>569.02</v>
       </c>
@@ -1551,7 +1576,7 @@
         <v>128.84432884608626</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2510</v>
       </c>
@@ -1563,7 +1588,7 @@
         <v>76.321912350597614</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1570</v>
       </c>
@@ -1575,7 +1600,7 @@
         <v>94.212738853503183</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>942.79</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>114.57906850942416</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1370</v>
       </c>
@@ -1599,7 +1624,7 @@
         <v>110.91824817518247</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1670</v>
       </c>
@@ -1611,7 +1636,7 @@
         <v>89.533532934131742</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>961.19</v>
       </c>
@@ -1623,7 +1648,7 @@
         <v>116.20387228331548</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>936.89</v>
       </c>
@@ -1635,7 +1660,7 @@
         <v>118.13339879815132</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>549.91</v>
       </c>
@@ -1647,7 +1672,7 @@
         <v>130.17220999799969</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>565.66</v>
       </c>
@@ -1659,7 +1684,7 @@
         <v>127.31322702683592</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1750</v>
       </c>
@@ -1671,7 +1696,7 @@
         <v>83.489142857142852</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>937.93</v>
       </c>
@@ -1683,7 +1708,7 @@
         <v>117.26354845244313</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2720</v>
       </c>
@@ -1709,12 +1734,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2940</v>
       </c>
@@ -1730,7 +1755,7 @@
         <v>1862.61</v>
       </c>
       <c r="C2">
-        <f>(B2/A2)*100</f>
+        <f t="shared" ref="C2:C33" si="0">(B2/A2)*100</f>
         <v>63.354081632653056</v>
       </c>
       <c r="E2" t="s">
@@ -1741,7 +1766,7 @@
         <v>105.85604948963632</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2860</v>
       </c>
@@ -1749,7 +1774,7 @@
         <v>1917.77</v>
       </c>
       <c r="C3">
-        <f>(B3/A3)*100</f>
+        <f t="shared" si="0"/>
         <v>67.05489510489511</v>
       </c>
       <c r="E3" t="s">
@@ -1760,7 +1785,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2720</v>
       </c>
@@ -1768,7 +1793,7 @@
         <v>1912.37</v>
       </c>
       <c r="C4">
-        <f>(B4/A4)*100</f>
+        <f t="shared" si="0"/>
         <v>70.307720588235284</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1778,7 +1803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1320</v>
       </c>
@@ -1786,7 +1811,7 @@
         <v>951.24</v>
       </c>
       <c r="C5">
-        <f>(B5/A5)*100</f>
+        <f t="shared" si="0"/>
         <v>72.063636363636363</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1796,7 +1821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>977.52</v>
       </c>
@@ -1804,7 +1829,7 @@
         <v>719.67</v>
       </c>
       <c r="C6">
-        <f>(B6/A6)*100</f>
+        <f t="shared" si="0"/>
         <v>73.622023078811679</v>
       </c>
       <c r="E6" t="s">
@@ -1814,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1240</v>
       </c>
@@ -1822,7 +1847,7 @@
         <v>933.65</v>
       </c>
       <c r="C7">
-        <f>(B7/A7)*100</f>
+        <f t="shared" si="0"/>
         <v>75.29435483870968</v>
       </c>
       <c r="E7" t="s">
@@ -1832,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>996.92</v>
       </c>
@@ -1840,11 +1865,11 @@
         <v>756.33</v>
       </c>
       <c r="C8">
-        <f>(B8/A8)*100</f>
+        <f t="shared" si="0"/>
         <v>75.866669341572049</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2510</v>
       </c>
@@ -1852,7 +1877,7 @@
         <v>1915.68</v>
       </c>
       <c r="C9">
-        <f>(B9/A9)*100</f>
+        <f t="shared" si="0"/>
         <v>76.321912350597614</v>
       </c>
       <c r="E9" t="s">
@@ -1862,7 +1887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>964.53</v>
       </c>
@@ -1870,7 +1895,7 @@
         <v>746.79</v>
       </c>
       <c r="C10">
-        <f>(B10/A10)*100</f>
+        <f t="shared" si="0"/>
         <v>77.425274486019092</v>
       </c>
       <c r="E10" t="s">
@@ -1880,7 +1905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1870</v>
       </c>
@@ -1888,11 +1913,11 @@
         <v>1502.11</v>
       </c>
       <c r="C11">
-        <f>(B11/A11)*100</f>
+        <f t="shared" si="0"/>
         <v>80.326737967914426</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>346.96</v>
       </c>
@@ -1900,11 +1925,11 @@
         <v>279.31</v>
       </c>
       <c r="C12">
-        <f>(B12/A12)*100</f>
+        <f t="shared" si="0"/>
         <v>80.502075167166254</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1790</v>
       </c>
@@ -1912,11 +1937,11 @@
         <v>1454.07</v>
       </c>
       <c r="C13">
-        <f>(B13/A13)*100</f>
+        <f t="shared" si="0"/>
         <v>81.232960893854738</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1810</v>
       </c>
@@ -1924,11 +1949,11 @@
         <v>1484.09</v>
       </c>
       <c r="C14">
-        <f>(B14/A14)*100</f>
+        <f t="shared" si="0"/>
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1810</v>
       </c>
@@ -1936,11 +1961,11 @@
         <v>1484.09</v>
       </c>
       <c r="C15">
-        <f>(B15/A15)*100</f>
+        <f t="shared" si="0"/>
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1720</v>
       </c>
@@ -1948,11 +1973,11 @@
         <v>1421.29</v>
       </c>
       <c r="C16">
-        <f>(B16/A16)*100</f>
+        <f t="shared" si="0"/>
         <v>82.633139534883711</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1750</v>
       </c>
@@ -1960,11 +1985,11 @@
         <v>1461.06</v>
       </c>
       <c r="C17">
-        <f>(B17/A17)*100</f>
+        <f t="shared" si="0"/>
         <v>83.489142857142852</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1770</v>
       </c>
@@ -1972,11 +1997,11 @@
         <v>1478.9</v>
       </c>
       <c r="C18">
-        <f>(B18/A18)*100</f>
+        <f t="shared" si="0"/>
         <v>83.55367231638418</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1780</v>
       </c>
@@ -1984,11 +2009,11 @@
         <v>1489.18</v>
       </c>
       <c r="C19">
-        <f>(B19/A19)*100</f>
+        <f t="shared" si="0"/>
         <v>83.661797752808994</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>347.25</v>
       </c>
@@ -1996,11 +2021,11 @@
         <v>292.60000000000002</v>
       </c>
       <c r="C20">
-        <f>(B20/A20)*100</f>
+        <f t="shared" si="0"/>
         <v>84.262059035277176</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1350</v>
       </c>
@@ -2008,11 +2033,11 @@
         <v>1176.01</v>
       </c>
       <c r="C21">
-        <f>(B21/A21)*100</f>
+        <f t="shared" si="0"/>
         <v>87.111851851851853</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>347.05</v>
       </c>
@@ -2020,11 +2045,11 @@
         <v>305.18</v>
       </c>
       <c r="C22">
-        <f>(B22/A22)*100</f>
+        <f t="shared" si="0"/>
         <v>87.935455986169146</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>409.24</v>
       </c>
@@ -2032,11 +2057,11 @@
         <v>360.56</v>
       </c>
       <c r="C23">
-        <f>(B23/A23)*100</f>
+        <f t="shared" si="0"/>
         <v>88.10477959143779</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>346.07</v>
       </c>
@@ -2044,11 +2069,11 @@
         <v>305.18</v>
       </c>
       <c r="C24">
-        <f>(B24/A24)*100</f>
+        <f t="shared" si="0"/>
         <v>88.184471349726934</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>694.83</v>
       </c>
@@ -2056,11 +2081,11 @@
         <v>620.79999999999995</v>
       </c>
       <c r="C25">
-        <f>(B25/A25)*100</f>
+        <f t="shared" si="0"/>
         <v>89.345595325475273</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1670</v>
       </c>
@@ -2068,11 +2093,11 @@
         <v>1495.21</v>
       </c>
       <c r="C26">
-        <f>(B26/A26)*100</f>
+        <f t="shared" si="0"/>
         <v>89.533532934131742</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>737.48</v>
       </c>
@@ -2080,11 +2105,11 @@
         <v>662.85</v>
       </c>
       <c r="C27">
-        <f>(B27/A27)*100</f>
+        <f t="shared" si="0"/>
         <v>89.880403536367098</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>527.83000000000004</v>
       </c>
@@ -2092,11 +2117,11 @@
         <v>485.74</v>
       </c>
       <c r="C28">
-        <f>(B28/A28)*100</f>
+        <f t="shared" si="0"/>
         <v>92.025841653562694</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1090</v>
       </c>
@@ -2104,11 +2129,11 @@
         <v>1006.06</v>
       </c>
       <c r="C29">
-        <f>(B29/A29)*100</f>
+        <f t="shared" si="0"/>
         <v>92.299082568807336</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>386.58</v>
       </c>
@@ -2116,11 +2141,11 @@
         <v>356.85</v>
       </c>
       <c r="C30">
-        <f>(B30/A30)*100</f>
+        <f t="shared" si="0"/>
         <v>92.30948316001863</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>896.73</v>
       </c>
@@ -2128,11 +2153,11 @@
         <v>828.48</v>
       </c>
       <c r="C31">
-        <f>(B31/A31)*100</f>
+        <f t="shared" si="0"/>
         <v>92.389013415409309</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>389.19</v>
       </c>
@@ -2140,11 +2165,11 @@
         <v>362.76</v>
       </c>
       <c r="C32">
-        <f>(B32/A32)*100</f>
+        <f t="shared" si="0"/>
         <v>93.208972481307327</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>906.36</v>
       </c>
@@ -2152,11 +2177,11 @@
         <v>845.93</v>
       </c>
       <c r="C33">
-        <f>(B33/A33)*100</f>
+        <f t="shared" si="0"/>
         <v>93.332671344719529</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>706.58</v>
       </c>
@@ -2164,11 +2189,11 @@
         <v>664.11</v>
       </c>
       <c r="C34">
-        <f>(B34/A34)*100</f>
+        <f t="shared" ref="C34:C65" si="1">(B34/A34)*100</f>
         <v>93.989357185315185</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>319.27</v>
       </c>
@@ -2176,11 +2201,11 @@
         <v>300.08999999999997</v>
       </c>
       <c r="C35">
-        <f>(B35/A35)*100</f>
+        <f t="shared" si="1"/>
         <v>93.992545494409114</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>319.12</v>
       </c>
@@ -2188,11 +2213,11 @@
         <v>300.08999999999997</v>
       </c>
       <c r="C36">
-        <f>(B36/A36)*100</f>
+        <f t="shared" si="1"/>
         <v>94.036725996490347</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>311.01</v>
       </c>
@@ -2200,11 +2225,11 @@
         <v>292.60000000000002</v>
       </c>
       <c r="C37">
-        <f>(B37/A37)*100</f>
+        <f t="shared" si="1"/>
         <v>94.080576187260874</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1570</v>
       </c>
@@ -2212,11 +2237,11 @@
         <v>1479.14</v>
       </c>
       <c r="C38">
-        <f>(B38/A38)*100</f>
+        <f t="shared" si="1"/>
         <v>94.212738853503183</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>308.95999999999998</v>
       </c>
@@ -2224,11 +2249,11 @@
         <v>292.60000000000002</v>
       </c>
       <c r="C39">
-        <f>(B39/A39)*100</f>
+        <f t="shared" si="1"/>
         <v>94.704816157431395</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>319.04000000000002</v>
       </c>
@@ -2236,11 +2261,11 @@
         <v>305.18</v>
       </c>
       <c r="C40">
-        <f>(B40/A40)*100</f>
+        <f t="shared" si="1"/>
         <v>95.655717151454354</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>428.38</v>
       </c>
@@ -2248,11 +2273,11 @@
         <v>410.24</v>
       </c>
       <c r="C41">
-        <f>(B41/A41)*100</f>
+        <f t="shared" si="1"/>
         <v>95.765441897380839</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>408.74</v>
       </c>
@@ -2260,11 +2285,11 @@
         <v>401.31</v>
       </c>
       <c r="C42">
-        <f>(B42/A42)*100</f>
+        <f t="shared" si="1"/>
         <v>98.182218525223846</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1070</v>
       </c>
@@ -2272,11 +2297,11 @@
         <v>1069.2</v>
       </c>
       <c r="C43">
-        <f>(B43/A43)*100</f>
+        <f t="shared" si="1"/>
         <v>99.925233644859816</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>443</v>
       </c>
@@ -2284,11 +2309,11 @@
         <v>448.06</v>
       </c>
       <c r="C44">
-        <f>(B44/A44)*100</f>
+        <f t="shared" si="1"/>
         <v>101.14221218961626</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>668.27</v>
       </c>
@@ -2296,11 +2321,11 @@
         <v>681.23</v>
       </c>
       <c r="C45">
-        <f>(B45/A45)*100</f>
+        <f t="shared" si="1"/>
         <v>101.93933589716733</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>426.57</v>
       </c>
@@ -2308,11 +2333,11 @@
         <v>442.55</v>
       </c>
       <c r="C46">
-        <f>(B46/A46)*100</f>
+        <f t="shared" si="1"/>
         <v>103.74616123965585</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1520</v>
       </c>
@@ -2320,11 +2345,11 @@
         <v>1579.54</v>
       </c>
       <c r="C47">
-        <f>(B47/A47)*100</f>
+        <f t="shared" si="1"/>
         <v>103.91710526315789</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>487</v>
       </c>
@@ -2332,11 +2357,11 @@
         <v>514.27</v>
       </c>
       <c r="C48">
-        <f>(B48/A48)*100</f>
+        <f t="shared" si="1"/>
         <v>105.59958932238193</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>679.74</v>
       </c>
@@ -2344,11 +2369,11 @@
         <v>720.33</v>
       </c>
       <c r="C49">
-        <f>(B49/A49)*100</f>
+        <f t="shared" si="1"/>
         <v>105.97140082972902</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>685.02</v>
       </c>
@@ -2356,11 +2381,11 @@
         <v>746.14</v>
       </c>
       <c r="C50">
-        <f>(B50/A50)*100</f>
+        <f t="shared" si="1"/>
         <v>108.92236723015387</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>546.25</v>
       </c>
@@ -2368,11 +2393,11 @@
         <v>603.12</v>
       </c>
       <c r="C51">
-        <f>(B51/A51)*100</f>
+        <f t="shared" si="1"/>
         <v>110.41098398169336</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>423.51</v>
       </c>
@@ -2380,11 +2405,11 @@
         <v>468.07</v>
       </c>
       <c r="C52">
-        <f>(B52/A52)*100</f>
+        <f t="shared" si="1"/>
         <v>110.52159335080636</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>815.01</v>
       </c>
@@ -2392,11 +2417,11 @@
         <v>902.25</v>
       </c>
       <c r="C53">
-        <f>(B53/A53)*100</f>
+        <f t="shared" si="1"/>
         <v>110.70416313910259</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1370</v>
       </c>
@@ -2404,11 +2429,11 @@
         <v>1519.58</v>
       </c>
       <c r="C54">
-        <f>(B54/A54)*100</f>
+        <f t="shared" si="1"/>
         <v>110.91824817518247</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>404.32</v>
       </c>
@@ -2416,11 +2441,11 @@
         <v>452.37</v>
       </c>
       <c r="C55">
-        <f>(B55/A55)*100</f>
+        <f t="shared" si="1"/>
         <v>111.88415116739216</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>982.06</v>
       </c>
@@ -2428,11 +2453,11 @@
         <v>1122.32</v>
       </c>
       <c r="C56">
-        <f>(B56/A56)*100</f>
+        <f t="shared" si="1"/>
         <v>114.28222308209274</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>942.79</v>
       </c>
@@ -2440,11 +2465,11 @@
         <v>1080.24</v>
       </c>
       <c r="C57">
-        <f>(B57/A57)*100</f>
+        <f t="shared" si="1"/>
         <v>114.57906850942416</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>376.4</v>
       </c>
@@ -2452,11 +2477,11 @@
         <v>432.29</v>
       </c>
       <c r="C58">
-        <f>(B58/A58)*100</f>
+        <f t="shared" si="1"/>
         <v>114.84856535600427</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>405.91</v>
       </c>
@@ -2464,11 +2489,11 @@
         <v>467.35</v>
       </c>
       <c r="C59">
-        <f>(B59/A59)*100</f>
+        <f t="shared" si="1"/>
         <v>115.13636027690868</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>576.71</v>
       </c>
@@ -2476,11 +2501,11 @@
         <v>665.91</v>
       </c>
       <c r="C60">
-        <f>(B60/A60)*100</f>
+        <f t="shared" si="1"/>
         <v>115.46704582892613</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>375.23</v>
       </c>
@@ -2488,11 +2513,11 @@
         <v>433.83</v>
       </c>
       <c r="C61">
-        <f>(B61/A61)*100</f>
+        <f t="shared" si="1"/>
         <v>115.61708818591264</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>375.68</v>
       </c>
@@ -2500,11 +2525,11 @@
         <v>435.42</v>
       </c>
       <c r="C62">
-        <f>(B62/A62)*100</f>
+        <f t="shared" si="1"/>
         <v>115.90183134582624</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>404.72</v>
       </c>
@@ -2512,11 +2537,11 @@
         <v>469.24</v>
       </c>
       <c r="C63">
-        <f>(B63/A63)*100</f>
+        <f t="shared" si="1"/>
         <v>115.94188574817157</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>961.19</v>
       </c>
@@ -2524,11 +2549,11 @@
         <v>1116.94</v>
       </c>
       <c r="C64">
-        <f>(B64/A64)*100</f>
+        <f t="shared" si="1"/>
         <v>116.20387228331548</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>376.92</v>
       </c>
@@ -2536,11 +2561,11 @@
         <v>439.76</v>
       </c>
       <c r="C65">
-        <f>(B65/A65)*100</f>
+        <f t="shared" si="1"/>
         <v>116.67197283243127</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>937.93</v>
       </c>
@@ -2548,11 +2573,11 @@
         <v>1099.8499999999999</v>
       </c>
       <c r="C66">
-        <f>(B66/A66)*100</f>
+        <f t="shared" ref="C66:C97" si="2">(B66/A66)*100</f>
         <v>117.26354845244313</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>571.39</v>
       </c>
@@ -2560,11 +2585,11 @@
         <v>670.8</v>
       </c>
       <c r="C67">
-        <f>(B67/A67)*100</f>
+        <f t="shared" si="2"/>
         <v>117.39792435989429</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>369.82</v>
       </c>
@@ -2572,11 +2597,11 @@
         <v>434.82</v>
       </c>
       <c r="C68">
-        <f>(B68/A68)*100</f>
+        <f t="shared" si="2"/>
         <v>117.57611811151372</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>369.33</v>
       </c>
@@ -2584,11 +2609,11 @@
         <v>435.32</v>
       </c>
       <c r="C69">
-        <f>(B69/A69)*100</f>
+        <f t="shared" si="2"/>
         <v>117.86748977878862</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>936.89</v>
       </c>
@@ -2596,11 +2621,11 @@
         <v>1106.78</v>
       </c>
       <c r="C70">
-        <f>(B70/A70)*100</f>
+        <f t="shared" si="2"/>
         <v>118.13339879815132</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>418.72</v>
       </c>
@@ -2608,11 +2633,11 @@
         <v>501.56</v>
       </c>
       <c r="C71">
-        <f>(B71/A71)*100</f>
+        <f t="shared" si="2"/>
         <v>119.78410393580434</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>368.89</v>
       </c>
@@ -2620,11 +2645,11 @@
         <v>442.57</v>
       </c>
       <c r="C72">
-        <f>(B72/A72)*100</f>
+        <f t="shared" si="2"/>
         <v>119.9734338149584</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>365.73</v>
       </c>
@@ -2632,11 +2657,11 @@
         <v>441.82</v>
       </c>
       <c r="C73">
-        <f>(B73/A73)*100</f>
+        <f t="shared" si="2"/>
         <v>120.80496541164246</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>366.16</v>
       </c>
@@ -2644,11 +2669,11 @@
         <v>443.17</v>
       </c>
       <c r="C74">
-        <f>(B74/A74)*100</f>
+        <f t="shared" si="2"/>
         <v>121.03178938169106</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>363.63</v>
       </c>
@@ -2656,11 +2681,11 @@
         <v>440.53</v>
       </c>
       <c r="C75">
-        <f>(B75/A75)*100</f>
+        <f t="shared" si="2"/>
         <v>121.14787008772655</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>424.09</v>
       </c>
@@ -2668,11 +2693,11 @@
         <v>513.87</v>
       </c>
       <c r="C76">
-        <f>(B76/A76)*100</f>
+        <f t="shared" si="2"/>
         <v>121.17003466245373</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>582.55999999999995</v>
       </c>
@@ -2680,11 +2705,11 @@
         <v>709.4</v>
       </c>
       <c r="C77">
-        <f>(B77/A77)*100</f>
+        <f t="shared" si="2"/>
         <v>121.77286459763801</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>421.65</v>
       </c>
@@ -2692,11 +2717,11 @@
         <v>513.87</v>
       </c>
       <c r="C78">
-        <f>(B78/A78)*100</f>
+        <f t="shared" si="2"/>
         <v>121.87122020633228</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>608.72</v>
       </c>
@@ -2704,11 +2729,11 @@
         <v>749.99</v>
       </c>
       <c r="C79">
-        <f>(B79/A79)*100</f>
+        <f t="shared" si="2"/>
         <v>123.20771454856092</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>359.44</v>
       </c>
@@ -2716,11 +2741,11 @@
         <v>443.08</v>
       </c>
       <c r="C80">
-        <f>(B80/A80)*100</f>
+        <f t="shared" si="2"/>
         <v>123.26953038059203</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>407.64</v>
       </c>
@@ -2728,11 +2753,11 @@
         <v>503.81</v>
       </c>
       <c r="C81">
-        <f>(B81/A81)*100</f>
+        <f t="shared" si="2"/>
         <v>123.59189480914532</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>585.29</v>
       </c>
@@ -2740,11 +2765,11 @@
         <v>729.11</v>
       </c>
       <c r="C82">
-        <f>(B82/A82)*100</f>
+        <f t="shared" si="2"/>
         <v>124.5724341779289</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>570.09</v>
       </c>
@@ -2752,11 +2777,11 @@
         <v>711.21</v>
       </c>
       <c r="C83">
-        <f>(B83/A83)*100</f>
+        <f t="shared" si="2"/>
         <v>124.75398621270327</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>344.72</v>
       </c>
@@ -2764,11 +2789,11 @@
         <v>433.66</v>
       </c>
       <c r="C84">
-        <f>(B84/A84)*100</f>
+        <f t="shared" si="2"/>
         <v>125.80064980273846</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>566.5</v>
       </c>
@@ -2776,11 +2801,11 @@
         <v>713.51</v>
       </c>
       <c r="C85">
-        <f>(B85/A85)*100</f>
+        <f t="shared" si="2"/>
         <v>125.95057369814651</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>876.26</v>
       </c>
@@ -2788,11 +2813,11 @@
         <v>1107.31</v>
       </c>
       <c r="C86">
-        <f>(B86/A86)*100</f>
+        <f t="shared" si="2"/>
         <v>126.36774473329832</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>591.39</v>
       </c>
@@ -2800,11 +2825,11 @@
         <v>752</v>
       </c>
       <c r="C87">
-        <f>(B87/A87)*100</f>
+        <f t="shared" si="2"/>
         <v>127.1580513705</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>565.66</v>
       </c>
@@ -2812,11 +2837,11 @@
         <v>720.16</v>
       </c>
       <c r="C88">
-        <f>(B88/A88)*100</f>
+        <f t="shared" si="2"/>
         <v>127.31322702683592</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>633.29</v>
       </c>
@@ -2824,11 +2849,11 @@
         <v>807.79</v>
       </c>
       <c r="C89">
-        <f>(B89/A89)*100</f>
+        <f t="shared" si="2"/>
         <v>127.55451688799759</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>569.02</v>
       </c>
@@ -2836,11 +2861,11 @@
         <v>733.15</v>
       </c>
       <c r="C90">
-        <f>(B90/A90)*100</f>
+        <f t="shared" si="2"/>
         <v>128.84432884608626</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>549.91</v>
       </c>
@@ -2848,11 +2873,11 @@
         <v>715.83</v>
       </c>
       <c r="C91">
-        <f>(B91/A91)*100</f>
+        <f t="shared" si="2"/>
         <v>130.17220999799969</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>560.67999999999995</v>
       </c>
@@ -2860,11 +2885,11 @@
         <v>734.39</v>
       </c>
       <c r="C92">
-        <f>(B92/A92)*100</f>
+        <f t="shared" si="2"/>
         <v>130.98202183063424</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>552.57000000000005</v>
       </c>
@@ -2872,11 +2897,11 @@
         <v>728.82</v>
       </c>
       <c r="C93">
-        <f>(B93/A93)*100</f>
+        <f t="shared" si="2"/>
         <v>131.89641131440359</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>375.98</v>
       </c>
@@ -2884,11 +2909,11 @@
         <v>497.47</v>
       </c>
       <c r="C94">
-        <f>(B94/A94)*100</f>
+        <f t="shared" si="2"/>
         <v>132.31288898345656</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>835.74</v>
       </c>
@@ -2896,11 +2921,11 @@
         <v>1108.8599999999999</v>
       </c>
       <c r="C95">
-        <f>(B95/A95)*100</f>
+        <f t="shared" si="2"/>
         <v>132.68002010194556</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>549.6</v>
       </c>
@@ -2908,11 +2933,11 @@
         <v>729.31</v>
       </c>
       <c r="C96">
-        <f>(B96/A96)*100</f>
+        <f t="shared" si="2"/>
         <v>132.69832605531292</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>552.80999999999995</v>
       </c>
@@ -2920,11 +2945,11 @@
         <v>734.15</v>
       </c>
       <c r="C97">
-        <f>(B97/A97)*100</f>
+        <f t="shared" si="2"/>
         <v>132.80331397767767</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>569.80999999999995</v>
       </c>
@@ -2932,11 +2957,11 @@
         <v>756.89</v>
       </c>
       <c r="C98">
-        <f>(B98/A98)*100</f>
+        <f t="shared" ref="C98:C129" si="3">(B98/A98)*100</f>
         <v>132.83199663045576</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>866.55</v>
       </c>
@@ -2944,11 +2969,11 @@
         <v>1153.0899999999999</v>
       </c>
       <c r="C99">
-        <f>(B99/A99)*100</f>
+        <f t="shared" si="3"/>
         <v>133.06675898678668</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>539.80999999999995</v>
       </c>
@@ -2956,11 +2981,11 @@
         <v>737.23</v>
       </c>
       <c r="C100">
-        <f>(B100/A100)*100</f>
+        <f t="shared" si="3"/>
         <v>136.57212722995129</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>759.28</v>
       </c>
@@ -2968,7 +2993,7 @@
         <v>1138.28</v>
       </c>
       <c r="C101">
-        <f>(B101/A101)*100</f>
+        <f t="shared" si="3"/>
         <v>149.91570961963967</v>
       </c>
     </row>
@@ -2985,13 +3010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F468C-3C3D-446A-B6F6-B5DF22B01BC4}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>319.12</v>
       </c>
@@ -3019,7 +3044,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>319.27</v>
       </c>
@@ -3033,7 +3058,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>346.07</v>
       </c>
@@ -3047,7 +3072,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>319.04000000000002</v>
       </c>
@@ -3061,7 +3086,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>347.05</v>
       </c>
@@ -3075,7 +3100,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>347.25</v>
       </c>
@@ -3089,7 +3114,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>311.01</v>
       </c>
@@ -3103,7 +3128,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>308.95999999999998</v>
       </c>
@@ -3117,7 +3142,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>346.96</v>
       </c>
@@ -3131,7 +3156,7 @@
         <v>91.13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>409.24</v>
       </c>
@@ -3145,7 +3170,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>418.72</v>
       </c>
@@ -3159,7 +3184,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>421.65</v>
       </c>
@@ -3173,7 +3198,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>424.09</v>
       </c>
@@ -3187,7 +3212,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>386.58</v>
       </c>
@@ -3201,7 +3226,7 @@
         <v>97.82</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>426.57</v>
       </c>
@@ -3215,7 +3240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>443</v>
       </c>
@@ -3229,7 +3254,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>527.83000000000004</v>
       </c>
@@ -3243,7 +3268,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>428.38</v>
       </c>
@@ -3257,7 +3282,7 @@
         <v>34.53</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>408.74</v>
       </c>
@@ -3271,7 +3296,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>389.19</v>
       </c>
@@ -3285,7 +3310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>404.32</v>
       </c>
@@ -3299,7 +3324,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>694.83</v>
       </c>
@@ -3313,7 +3338,7 @@
         <v>41.09</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>964.53</v>
       </c>
@@ -3327,7 +3352,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>423.51</v>
       </c>
@@ -3341,7 +3366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>996.92</v>
       </c>
@@ -3355,7 +3380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>977.52</v>
       </c>
@@ -3369,7 +3394,7 @@
         <v>44.03</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>737.48</v>
       </c>
@@ -3383,7 +3408,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>487</v>
       </c>
@@ -3397,7 +3422,7 @@
         <v>48.07</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>546.25</v>
       </c>
@@ -3411,7 +3436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>706.58</v>
       </c>
@@ -3425,7 +3450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>407.64</v>
       </c>
@@ -3439,7 +3464,7 @@
         <v>57.38</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>375.98</v>
       </c>
@@ -3453,7 +3478,7 @@
         <v>58.33</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>668.27</v>
       </c>
@@ -3467,7 +3492,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404.72</v>
       </c>
@@ -3481,7 +3506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>679.74</v>
       </c>
@@ -3495,7 +3520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>576.71</v>
       </c>
@@ -3509,7 +3534,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>571.39</v>
       </c>
@@ -3523,7 +3548,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>896.73</v>
       </c>
@@ -3537,7 +3562,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>582.55999999999995</v>
       </c>
@@ -3551,7 +3576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1240</v>
       </c>
@@ -3565,7 +3590,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>906.36</v>
       </c>
@@ -3579,7 +3604,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>685.02</v>
       </c>
@@ -3593,7 +3618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1320</v>
       </c>
@@ -3607,7 +3632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>405.91</v>
       </c>
@@ -3621,7 +3646,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>591.39</v>
       </c>
@@ -3635,7 +3660,7 @@
         <v>67.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>633.29</v>
       </c>
@@ -3649,7 +3674,7 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>815.01</v>
       </c>
@@ -3663,7 +3688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1070</v>
       </c>
@@ -3677,7 +3702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1090</v>
       </c>
@@ -3691,7 +3716,7 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>569.80999999999995</v>
       </c>
@@ -3705,7 +3730,7 @@
         <v>81.95</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>608.72</v>
       </c>
@@ -3719,7 +3744,7 @@
         <v>84.02</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1350</v>
       </c>
@@ -3733,7 +3758,7 @@
         <v>80.349999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>759.28</v>
       </c>
@@ -3747,7 +3772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1870</v>
       </c>
@@ -3761,7 +3786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>585.29</v>
       </c>
@@ -3775,7 +3800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>866.55</v>
       </c>
@@ -3789,7 +3814,7 @@
         <v>94.15</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>359.44</v>
       </c>
@@ -3803,7 +3828,7 @@
         <v>75.55</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>876.26</v>
       </c>
@@ -3817,7 +3842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>376.4</v>
       </c>
@@ -3831,7 +3856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1520</v>
       </c>
@@ -3845,7 +3870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>363.63</v>
       </c>
@@ -3859,7 +3884,7 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>552.80999999999995</v>
       </c>
@@ -3873,7 +3898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>375.23</v>
       </c>
@@ -3887,7 +3912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>369.82</v>
       </c>
@@ -3901,7 +3926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>549.6</v>
       </c>
@@ -3915,7 +3940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>539.80999999999995</v>
       </c>
@@ -3929,7 +3954,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>376.92</v>
       </c>
@@ -3943,7 +3968,7 @@
         <v>75.92</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>365.73</v>
       </c>
@@ -3957,7 +3982,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1810</v>
       </c>
@@ -3971,7 +3996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1810</v>
       </c>
@@ -3985,7 +4010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1790</v>
       </c>
@@ -3999,7 +4024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1720</v>
       </c>
@@ -4013,7 +4038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1780</v>
       </c>
@@ -4027,7 +4052,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>982.06</v>
       </c>
@@ -4041,7 +4066,7 @@
         <v>94.28</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>552.57000000000005</v>
       </c>
@@ -4055,7 +4080,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1770</v>
       </c>
@@ -4069,7 +4094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>369.33</v>
       </c>
@@ -4083,7 +4108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>570.09</v>
       </c>
@@ -4097,7 +4122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>375.68</v>
       </c>
@@ -4111,7 +4136,7 @@
         <v>86.22</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>366.16</v>
       </c>
@@ -4125,7 +4150,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>368.89</v>
       </c>
@@ -4139,7 +4164,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>560.67999999999995</v>
       </c>
@@ -4153,7 +4178,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>566.5</v>
       </c>
@@ -4167,7 +4192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>344.72</v>
       </c>
@@ -4181,7 +4206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2940</v>
       </c>
@@ -4195,7 +4220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2860</v>
       </c>
@@ -4209,7 +4234,7 @@
         <v>97.58</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>835.74</v>
       </c>
@@ -4223,7 +4248,7 @@
         <v>94.37</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>569.02</v>
       </c>
@@ -4237,7 +4262,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2510</v>
       </c>
@@ -4251,7 +4276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1570</v>
       </c>
@@ -4265,7 +4290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>942.79</v>
       </c>
@@ -4279,7 +4304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1370</v>
       </c>
@@ -4293,7 +4318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1670</v>
       </c>
@@ -4307,7 +4332,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>961.19</v>
       </c>
@@ -4321,7 +4346,7 @@
         <v>93.32</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>936.89</v>
       </c>
@@ -4335,7 +4360,7 @@
         <v>94.35</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>549.91</v>
       </c>
@@ -4349,7 +4374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>565.66</v>
       </c>
@@ -4363,7 +4388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1750</v>
       </c>
@@ -4377,7 +4402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>937.93</v>
       </c>
@@ -4391,7 +4416,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2720</v>
       </c>
@@ -4416,13 +4441,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555D9EBE-4FC4-4735-BC9D-F928E5AEF8CB}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4439,7 +4464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>64</v>
       </c>
@@ -4456,7 +4481,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>64</v>
       </c>
@@ -4473,7 +4498,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>64</v>
       </c>
@@ -4490,7 +4515,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>64</v>
       </c>
@@ -4507,7 +4532,7 @@
         <v>10075.903609999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>64</v>
       </c>
@@ -4524,7 +4549,7 @@
         <v>19770.596669999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>64</v>
       </c>
@@ -4541,7 +4566,7 @@
         <v>20155.880669999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>64</v>
       </c>
@@ -4558,7 +4583,7 @@
         <v>26867.76152</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>64</v>
       </c>
@@ -4575,7 +4600,7 @@
         <v>29613.386879999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>64</v>
       </c>
@@ -4592,7 +4617,7 @@
         <v>34262.344620000003</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>64</v>
       </c>
@@ -4609,7 +4634,7 @@
         <v>35566.432399999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>64</v>
       </c>
@@ -4626,7 +4651,7 @@
         <v>37801.70205</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>64</v>
       </c>
@@ -4643,7 +4668,7 @@
         <v>41910.915090000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>64</v>
       </c>
@@ -4660,7 +4685,7 @@
         <v>66403.275810000006</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>64</v>
       </c>
@@ -4677,7 +4702,7 @@
         <v>67490.91605</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>64</v>
       </c>
@@ -4694,7 +4719,7 @@
         <v>73620.572769999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>64</v>
       </c>
@@ -4711,7 +4736,7 @@
         <v>75228.571429999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>64</v>
       </c>
@@ -4728,7 +4753,7 @@
         <v>75533.649980000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>64</v>
       </c>
@@ -4745,7 +4770,7 @@
         <v>79580.679860000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64</v>
       </c>
@@ -4762,7 +4787,7 @@
         <v>79812.835760000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>64</v>
       </c>
@@ -4779,7 +4804,7 @@
         <v>82059.022270000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>64</v>
       </c>
@@ -4796,7 +4821,7 @@
         <v>83375.268209999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>64</v>
       </c>
@@ -4813,7 +4838,7 @@
         <v>85014.996780000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>64</v>
       </c>
@@ -4830,7 +4855,7 @@
         <v>86704.508979999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>64</v>
       </c>
@@ -4847,7 +4872,7 @@
         <v>88748.948340000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>128</v>
       </c>
@@ -4864,7 +4889,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>128</v>
       </c>
@@ -4881,7 +4906,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>128</v>
       </c>
@@ -4898,7 +4923,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>128</v>
       </c>
@@ -4915,7 +4940,7 @@
         <v>20010.04016</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>128</v>
       </c>
@@ -4932,7 +4957,7 @@
         <v>20014.056219999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>128</v>
       </c>
@@ -4949,7 +4974,7 @@
         <v>29979.74756</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>128</v>
       </c>
@@ -4966,7 +4991,7 @@
         <v>39890.533560000003</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4983,7 +5008,7 @@
         <v>39891.537579999997</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>128</v>
       </c>
@@ -5000,7 +5025,7 @@
         <v>39995.955249999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>128</v>
       </c>
@@ -5017,7 +5042,7 @@
         <v>42260.814689999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>128</v>
       </c>
@@ -5034,7 +5059,7 @@
         <v>49657.028109999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>128</v>
       </c>
@@ -5051,7 +5076,7 @@
         <v>57042.766300000003</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>128</v>
       </c>
@@ -5068,7 +5093,7 @@
         <v>58527.954680000003</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>128</v>
       </c>
@@ -5085,7 +5110,7 @@
         <v>60468.550389999997</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>128</v>
       </c>
@@ -5102,7 +5127,7 @@
         <v>74052.91115</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>128</v>
       </c>
@@ -5119,7 +5144,7 @@
         <v>75878.332240000003</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>128</v>
       </c>
@@ -5136,7 +5161,7 @@
         <v>76018.326350000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>128</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>80584.202179999993</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>128</v>
       </c>
@@ -5170,7 +5195,7 @@
         <v>82582.022459999993</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>128</v>
       </c>
@@ -5187,7 +5212,7 @@
         <v>87072.8802</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>128</v>
       </c>
@@ -5204,7 +5229,7 @@
         <v>88560.169250000006</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>128</v>
       </c>
@@ -5221,7 +5246,7 @@
         <v>94047.0049</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>128</v>
       </c>
@@ -5238,7 +5263,7 @@
         <v>97272.103059999994</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>128</v>
       </c>
@@ -5255,7 +5280,7 @@
         <v>97355.192200000005</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>256</v>
       </c>
@@ -5272,7 +5297,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>256</v>
       </c>
@@ -5289,7 +5314,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>256</v>
       </c>
@@ -5306,7 +5331,7 @@
         <v>19824.297190000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>256</v>
       </c>
@@ -5323,7 +5348,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>256</v>
       </c>
@@ -5340,7 +5365,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>256</v>
       </c>
@@ -5357,7 +5382,7 @@
         <v>37224.0677</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>256</v>
       </c>
@@ -5374,7 +5399,7 @@
         <v>39577.911650000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>256</v>
       </c>
@@ -5391,7 +5416,7 @@
         <v>40019.210169999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>256</v>
       </c>
@@ -5408,7 +5433,7 @@
         <v>50002.008029999997</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>256</v>
       </c>
@@ -5425,7 +5450,7 @@
         <v>59977.471790000003</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>256</v>
       </c>
@@ -5442,7 +5467,7 @@
         <v>65205.886749999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>256</v>
       </c>
@@ -5459,7 +5484,7 @@
         <v>66797.204400000002</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>256</v>
       </c>
@@ -5476,7 +5501,7 @@
         <v>80373.055429999993</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>256</v>
       </c>
@@ -5493,7 +5518,7 @@
         <v>91213.924960000004</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>256</v>
       </c>
@@ -5510,7 +5535,7 @@
         <v>96053.590549999994</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>256</v>
       </c>
@@ -5527,7 +5552,7 @@
         <v>96610.948560000004</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>256</v>
       </c>
@@ -5544,7 +5569,7 @@
         <v>96895.629700000005</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>256</v>
       </c>
@@ -5561,7 +5586,7 @@
         <v>99004.603700000007</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>512</v>
       </c>
@@ -5578,7 +5603,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>512</v>
       </c>
@@ -5595,7 +5620,7 @@
         <v>28045.18072</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>512</v>
       </c>
@@ -5612,7 +5637,7 @@
         <v>29887.119910000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>512</v>
       </c>
@@ -5629,7 +5654,7 @@
         <v>30018.57908</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>512</v>
       </c>
@@ -5646,7 +5671,7 @@
         <v>39987.951809999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>512</v>
       </c>
@@ -5663,7 +5688,7 @@
         <v>40012.048190000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>512</v>
       </c>
@@ -5680,7 +5705,7 @@
         <v>50141.566270000003</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>512</v>
       </c>
@@ -5697,7 +5722,7 @@
         <v>50213.85542</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>512</v>
       </c>
@@ -5714,7 +5739,7 @@
         <v>58838.372969999997</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>512</v>
       </c>
@@ -5731,7 +5756,7 @@
         <v>69936.115890000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>512</v>
       </c>
@@ -5748,7 +5773,7 @@
         <v>79962.947029999996</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>512</v>
       </c>
@@ -5765,7 +5790,7 @@
         <v>79962.947029999996</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>512</v>
       </c>
@@ -5782,7 +5807,7 @@
         <v>80161.07286</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>512</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>80243.66992</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>512</v>
       </c>
@@ -5816,7 +5841,7 @@
         <v>80257.458410000007</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>512</v>
       </c>
@@ -5833,7 +5858,7 @@
         <v>81342.197360000006</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>512</v>
       </c>
@@ -5850,7 +5875,7 @@
         <v>95394.587880000006</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>512</v>
       </c>
@@ -5867,7 +5892,7 @@
         <v>96131.200989999998</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>512</v>
       </c>
@@ -5884,7 +5909,7 @@
         <v>96230.555559999993</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>512</v>
       </c>
@@ -5901,7 +5926,7 @@
         <v>98002.046279999995</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1024</v>
       </c>
@@ -5918,7 +5943,7 @@
         <v>10918.330459999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1024</v>
       </c>
@@ -5935,7 +5960,7 @@
         <v>18752.008030000001</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1024</v>
       </c>
@@ -5952,7 +5977,7 @@
         <v>19227.911649999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1024</v>
       </c>
@@ -5969,7 +5994,7 @@
         <v>19227.911649999998</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1024</v>
       </c>
@@ -5986,7 +6011,7 @@
         <v>29122.43259</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1024</v>
       </c>
@@ -6003,7 +6028,7 @@
         <v>29716.838779999998</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1024</v>
       </c>
@@ -6020,7 +6045,7 @@
         <v>29851.376939999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1024</v>
       </c>
@@ -6037,7 +6062,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1024</v>
       </c>
@@ -6054,7 +6079,7 @@
         <v>40048.192770000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1024</v>
       </c>
@@ -6071,7 +6096,7 @@
         <v>60047.016640000002</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1024</v>
       </c>
@@ -6088,7 +6113,7 @@
         <v>90105.253049999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1024</v>
       </c>
@@ -6105,7 +6130,7 @@
         <v>90848.578729999994</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1024</v>
       </c>
@@ -6122,7 +6147,7 @@
         <v>94122.068360000005</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1024</v>
       </c>
@@ -6146,4 +6171,181 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B8854-1686-4C0A-89CD-E823D6387B1C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>311.01</v>
+      </c>
+      <c r="C2">
+        <v>27030</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>346.96</v>
+      </c>
+      <c r="C3">
+        <v>29966</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>369.82</v>
+      </c>
+      <c r="C4">
+        <v>39039</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>389.19</v>
+      </c>
+      <c r="C5">
+        <v>35239</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>405.91</v>
+      </c>
+      <c r="C6">
+        <v>40025</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7">
+        <v>409.24</v>
+      </c>
+      <c r="C7">
+        <v>34650</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1024</v>
+      </c>
+      <c r="B8">
+        <v>964.53</v>
+      </c>
+      <c r="C8">
+        <v>81827</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <v>1240</v>
+      </c>
+      <c r="C9">
+        <v>105102</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1024</v>
+      </c>
+      <c r="B10">
+        <v>2510</v>
+      </c>
+      <c r="C10">
+        <v>213229</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1024</v>
+      </c>
+      <c r="B11">
+        <v>2720</v>
+      </c>
+      <c r="C11">
+        <v>231082</v>
+      </c>
+      <c r="D11">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/serving/experiments/data/result_vm1.xlsx
+++ b/serving/experiments/data/result_vm1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyowon Lee\Desktop\Inferencing-CPU-for-network-performance-in-virtualized-environments\serving\experiments\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyowonlee/Desktop/Inferencing-CPU-for-network-performance-in-virtualized-environments/serving/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C9D47-B8C5-409F-B64B-E345FCD887CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771E534-698D-4743-8107-5F2B01708F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2160" windowWidth="11625" windowHeight="11565" firstSheet="3" activeTab="4" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="3" activeTab="4" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
   </bookViews>
   <sheets>
     <sheet name="slo_throughput" sheetId="1" r:id="rId1"/>
@@ -56,90 +56,90 @@
   </si>
   <si>
     <t>cpu_usage (input)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cpu_usage(experiment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SLO(input)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>throughput(experiment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SLO (input)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>throughput (experiment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>평균 SLO 충족률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100% 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>90% 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>80% 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>70% 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>70% 미만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>99% 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>95% 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pkt_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cpu_usage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bandwidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>expected quota</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>throughput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,7 +149,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -178,11 +194,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,12 +527,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -518,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>319.12</v>
       </c>
@@ -530,7 +552,7 @@
         <v>94.036725996490347</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>319.27</v>
       </c>
@@ -542,7 +564,7 @@
         <v>93.992545494409114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>346.07</v>
       </c>
@@ -555,7 +577,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>319.04000000000002</v>
       </c>
@@ -568,7 +590,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>347.05</v>
       </c>
@@ -580,7 +602,7 @@
         <v>87.935455986169146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>347.25</v>
       </c>
@@ -592,7 +614,7 @@
         <v>84.262059035277176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>311.01</v>
       </c>
@@ -604,7 +626,7 @@
         <v>94.080576187260874</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>308.95999999999998</v>
       </c>
@@ -616,7 +638,7 @@
         <v>94.704816157431395</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>346.96</v>
       </c>
@@ -628,7 +650,7 @@
         <v>80.502075167166254</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>409.24</v>
       </c>
@@ -640,7 +662,7 @@
         <v>88.10477959143779</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>418.72</v>
       </c>
@@ -652,7 +674,7 @@
         <v>119.78410393580434</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>421.65</v>
       </c>
@@ -664,7 +686,7 @@
         <v>121.87122020633228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>424.09</v>
       </c>
@@ -676,7 +698,7 @@
         <v>121.17003466245373</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>386.58</v>
       </c>
@@ -688,7 +710,7 @@
         <v>92.30948316001863</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>426.57</v>
       </c>
@@ -700,7 +722,7 @@
         <v>103.74616123965585</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>443</v>
       </c>
@@ -712,7 +734,7 @@
         <v>101.14221218961626</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>527.83000000000004</v>
       </c>
@@ -724,7 +746,7 @@
         <v>92.025841653562694</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>428.38</v>
       </c>
@@ -736,7 +758,7 @@
         <v>95.765441897380839</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>408.74</v>
       </c>
@@ -748,7 +770,7 @@
         <v>98.182218525223846</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>389.19</v>
       </c>
@@ -760,7 +782,7 @@
         <v>93.208972481307327</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>404.32</v>
       </c>
@@ -772,7 +794,7 @@
         <v>111.88415116739216</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>694.83</v>
       </c>
@@ -784,7 +806,7 @@
         <v>89.345595325475273</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>964.53</v>
       </c>
@@ -796,7 +818,7 @@
         <v>77.425274486019092</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>423.51</v>
       </c>
@@ -808,7 +830,7 @@
         <v>110.52159335080636</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>996.92</v>
       </c>
@@ -820,7 +842,7 @@
         <v>75.866669341572049</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>977.52</v>
       </c>
@@ -832,7 +854,7 @@
         <v>73.622023078811679</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>737.48</v>
       </c>
@@ -844,7 +866,7 @@
         <v>89.880403536367098</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>487</v>
       </c>
@@ -856,7 +878,7 @@
         <v>105.59958932238193</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>546.25</v>
       </c>
@@ -868,7 +890,7 @@
         <v>110.41098398169336</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>706.58</v>
       </c>
@@ -880,7 +902,7 @@
         <v>93.989357185315185</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>407.64</v>
       </c>
@@ -892,7 +914,7 @@
         <v>123.59189480914532</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>375.98</v>
       </c>
@@ -904,7 +926,7 @@
         <v>132.31288898345656</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>668.27</v>
       </c>
@@ -916,7 +938,7 @@
         <v>101.93933589716733</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>404.72</v>
       </c>
@@ -928,7 +950,7 @@
         <v>115.94188574817157</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>679.74</v>
       </c>
@@ -940,7 +962,7 @@
         <v>105.97140082972902</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>576.71</v>
       </c>
@@ -952,7 +974,7 @@
         <v>115.46704582892613</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>571.39</v>
       </c>
@@ -964,7 +986,7 @@
         <v>117.39792435989429</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>896.73</v>
       </c>
@@ -976,7 +998,7 @@
         <v>92.389013415409309</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>582.55999999999995</v>
       </c>
@@ -988,7 +1010,7 @@
         <v>121.77286459763801</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>1240</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>75.29435483870968</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>906.36</v>
       </c>
@@ -1012,7 +1034,7 @@
         <v>93.332671344719529</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>685.02</v>
       </c>
@@ -1024,7 +1046,7 @@
         <v>108.92236723015387</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>1320</v>
       </c>
@@ -1036,7 +1058,7 @@
         <v>72.063636363636363</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>405.91</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>115.13636027690868</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>591.39</v>
       </c>
@@ -1060,7 +1082,7 @@
         <v>127.1580513705</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>633.29</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>127.55451688799759</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>815.01</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>110.70416313910259</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>1070</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>99.925233644859816</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>1090</v>
       </c>
@@ -1108,7 +1130,7 @@
         <v>92.299082568807336</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>569.80999999999995</v>
       </c>
@@ -1120,7 +1142,7 @@
         <v>132.83199663045576</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>608.72</v>
       </c>
@@ -1132,7 +1154,7 @@
         <v>123.20771454856092</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>1350</v>
       </c>
@@ -1144,7 +1166,7 @@
         <v>87.111851851851853</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>759.28</v>
       </c>
@@ -1156,7 +1178,7 @@
         <v>149.91570961963967</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>1870</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>80.326737967914426</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>585.29</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>124.5724341779289</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>866.55</v>
       </c>
@@ -1192,7 +1214,7 @@
         <v>133.06675898678668</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>359.44</v>
       </c>
@@ -1204,7 +1226,7 @@
         <v>123.26953038059203</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>876.26</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>126.36774473329832</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>376.4</v>
       </c>
@@ -1228,7 +1250,7 @@
         <v>114.84856535600427</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>1520</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>103.91710526315789</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>363.63</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>121.14787008772655</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>552.80999999999995</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>132.80331397767767</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>375.23</v>
       </c>
@@ -1276,7 +1298,7 @@
         <v>115.61708818591264</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>369.82</v>
       </c>
@@ -1288,7 +1310,7 @@
         <v>117.57611811151372</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>549.6</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>132.69832605531292</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>539.80999999999995</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>136.57212722995129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>376.92</v>
       </c>
@@ -1324,7 +1346,7 @@
         <v>116.67197283243127</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>365.73</v>
       </c>
@@ -1336,7 +1358,7 @@
         <v>120.80496541164246</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>1810</v>
       </c>
@@ -1348,7 +1370,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>1810</v>
       </c>
@@ -1360,7 +1382,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>1790</v>
       </c>
@@ -1372,7 +1394,7 @@
         <v>81.232960893854738</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>1720</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>82.633139534883711</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>1780</v>
       </c>
@@ -1396,7 +1418,7 @@
         <v>83.661797752808994</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>982.06</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>114.28222308209274</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>552.57000000000005</v>
       </c>
@@ -1420,7 +1442,7 @@
         <v>131.89641131440359</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>1770</v>
       </c>
@@ -1432,7 +1454,7 @@
         <v>83.55367231638418</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>369.33</v>
       </c>
@@ -1444,7 +1466,7 @@
         <v>117.86748977878862</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>570.09</v>
       </c>
@@ -1456,7 +1478,7 @@
         <v>124.75398621270327</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>375.68</v>
       </c>
@@ -1468,7 +1490,7 @@
         <v>115.90183134582624</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>366.16</v>
       </c>
@@ -1480,7 +1502,7 @@
         <v>121.03178938169106</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>368.89</v>
       </c>
@@ -1492,7 +1514,7 @@
         <v>119.9734338149584</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>560.67999999999995</v>
       </c>
@@ -1504,7 +1526,7 @@
         <v>130.98202183063424</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>566.5</v>
       </c>
@@ -1516,7 +1538,7 @@
         <v>125.95057369814651</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>344.72</v>
       </c>
@@ -1528,7 +1550,7 @@
         <v>125.80064980273846</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>2940</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>63.354081632653056</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>2860</v>
       </c>
@@ -1552,7 +1574,7 @@
         <v>67.05489510489511</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>835.74</v>
       </c>
@@ -1564,7 +1586,7 @@
         <v>132.68002010194556</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>569.02</v>
       </c>
@@ -1576,7 +1598,7 @@
         <v>128.84432884608626</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>2510</v>
       </c>
@@ -1588,7 +1610,7 @@
         <v>76.321912350597614</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>1570</v>
       </c>
@@ -1600,7 +1622,7 @@
         <v>94.212738853503183</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>942.79</v>
       </c>
@@ -1612,7 +1634,7 @@
         <v>114.57906850942416</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>1370</v>
       </c>
@@ -1624,7 +1646,7 @@
         <v>110.91824817518247</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>1670</v>
       </c>
@@ -1636,7 +1658,7 @@
         <v>89.533532934131742</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>961.19</v>
       </c>
@@ -1648,7 +1670,7 @@
         <v>116.20387228331548</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>936.89</v>
       </c>
@@ -1660,7 +1682,7 @@
         <v>118.13339879815132</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>549.91</v>
       </c>
@@ -1672,7 +1694,7 @@
         <v>130.17220999799969</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>565.66</v>
       </c>
@@ -1684,7 +1706,7 @@
         <v>127.31322702683592</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>1750</v>
       </c>
@@ -1696,7 +1718,7 @@
         <v>83.489142857142852</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>937.93</v>
       </c>
@@ -1708,7 +1730,7 @@
         <v>117.26354845244313</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>2720</v>
       </c>
@@ -1721,7 +1743,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1734,12 +1756,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1747,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2940</v>
       </c>
@@ -1766,7 +1788,7 @@
         <v>105.85604948963632</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2860</v>
       </c>
@@ -1785,7 +1807,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2720</v>
       </c>
@@ -1803,7 +1825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1320</v>
       </c>
@@ -1821,7 +1843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>977.52</v>
       </c>
@@ -1839,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1240</v>
       </c>
@@ -1857,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>996.92</v>
       </c>
@@ -1869,7 +1891,7 @@
         <v>75.866669341572049</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2510</v>
       </c>
@@ -1887,7 +1909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>964.53</v>
       </c>
@@ -1905,7 +1927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1870</v>
       </c>
@@ -1917,7 +1939,7 @@
         <v>80.326737967914426</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>346.96</v>
       </c>
@@ -1929,7 +1951,7 @@
         <v>80.502075167166254</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1790</v>
       </c>
@@ -1941,7 +1963,7 @@
         <v>81.232960893854738</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1810</v>
       </c>
@@ -1953,7 +1975,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1810</v>
       </c>
@@ -1965,7 +1987,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1720</v>
       </c>
@@ -1977,7 +1999,7 @@
         <v>82.633139534883711</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1750</v>
       </c>
@@ -1989,7 +2011,7 @@
         <v>83.489142857142852</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1770</v>
       </c>
@@ -2001,7 +2023,7 @@
         <v>83.55367231638418</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1780</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>83.661797752808994</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>347.25</v>
       </c>
@@ -2025,7 +2047,7 @@
         <v>84.262059035277176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>1350</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>87.111851851851853</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>347.05</v>
       </c>
@@ -2049,7 +2071,7 @@
         <v>87.935455986169146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>409.24</v>
       </c>
@@ -2061,7 +2083,7 @@
         <v>88.10477959143779</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>346.07</v>
       </c>
@@ -2073,7 +2095,7 @@
         <v>88.184471349726934</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>694.83</v>
       </c>
@@ -2085,7 +2107,7 @@
         <v>89.345595325475273</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>1670</v>
       </c>
@@ -2097,7 +2119,7 @@
         <v>89.533532934131742</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>737.48</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>89.880403536367098</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>527.83000000000004</v>
       </c>
@@ -2121,7 +2143,7 @@
         <v>92.025841653562694</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>1090</v>
       </c>
@@ -2133,7 +2155,7 @@
         <v>92.299082568807336</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>386.58</v>
       </c>
@@ -2145,7 +2167,7 @@
         <v>92.30948316001863</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>896.73</v>
       </c>
@@ -2157,7 +2179,7 @@
         <v>92.389013415409309</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>389.19</v>
       </c>
@@ -2169,7 +2191,7 @@
         <v>93.208972481307327</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>906.36</v>
       </c>
@@ -2181,7 +2203,7 @@
         <v>93.332671344719529</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>706.58</v>
       </c>
@@ -2193,7 +2215,7 @@
         <v>93.989357185315185</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>319.27</v>
       </c>
@@ -2205,7 +2227,7 @@
         <v>93.992545494409114</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>319.12</v>
       </c>
@@ -2217,7 +2239,7 @@
         <v>94.036725996490347</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>311.01</v>
       </c>
@@ -2229,7 +2251,7 @@
         <v>94.080576187260874</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>1570</v>
       </c>
@@ -2241,7 +2263,7 @@
         <v>94.212738853503183</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>308.95999999999998</v>
       </c>
@@ -2253,7 +2275,7 @@
         <v>94.704816157431395</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>319.04000000000002</v>
       </c>
@@ -2265,7 +2287,7 @@
         <v>95.655717151454354</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>428.38</v>
       </c>
@@ -2277,7 +2299,7 @@
         <v>95.765441897380839</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>408.74</v>
       </c>
@@ -2289,7 +2311,7 @@
         <v>98.182218525223846</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>1070</v>
       </c>
@@ -2301,7 +2323,7 @@
         <v>99.925233644859816</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>443</v>
       </c>
@@ -2313,7 +2335,7 @@
         <v>101.14221218961626</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>668.27</v>
       </c>
@@ -2325,7 +2347,7 @@
         <v>101.93933589716733</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>426.57</v>
       </c>
@@ -2337,7 +2359,7 @@
         <v>103.74616123965585</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>1520</v>
       </c>
@@ -2349,7 +2371,7 @@
         <v>103.91710526315789</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>487</v>
       </c>
@@ -2361,7 +2383,7 @@
         <v>105.59958932238193</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>679.74</v>
       </c>
@@ -2373,7 +2395,7 @@
         <v>105.97140082972902</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>685.02</v>
       </c>
@@ -2385,7 +2407,7 @@
         <v>108.92236723015387</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>546.25</v>
       </c>
@@ -2397,7 +2419,7 @@
         <v>110.41098398169336</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>423.51</v>
       </c>
@@ -2409,7 +2431,7 @@
         <v>110.52159335080636</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>815.01</v>
       </c>
@@ -2421,7 +2443,7 @@
         <v>110.70416313910259</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>1370</v>
       </c>
@@ -2433,7 +2455,7 @@
         <v>110.91824817518247</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>404.32</v>
       </c>
@@ -2445,7 +2467,7 @@
         <v>111.88415116739216</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>982.06</v>
       </c>
@@ -2457,7 +2479,7 @@
         <v>114.28222308209274</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>942.79</v>
       </c>
@@ -2469,7 +2491,7 @@
         <v>114.57906850942416</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>376.4</v>
       </c>
@@ -2481,7 +2503,7 @@
         <v>114.84856535600427</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>405.91</v>
       </c>
@@ -2493,7 +2515,7 @@
         <v>115.13636027690868</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>576.71</v>
       </c>
@@ -2505,7 +2527,7 @@
         <v>115.46704582892613</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>375.23</v>
       </c>
@@ -2517,7 +2539,7 @@
         <v>115.61708818591264</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>375.68</v>
       </c>
@@ -2529,7 +2551,7 @@
         <v>115.90183134582624</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>404.72</v>
       </c>
@@ -2541,7 +2563,7 @@
         <v>115.94188574817157</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>961.19</v>
       </c>
@@ -2553,7 +2575,7 @@
         <v>116.20387228331548</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>376.92</v>
       </c>
@@ -2565,7 +2587,7 @@
         <v>116.67197283243127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>937.93</v>
       </c>
@@ -2577,7 +2599,7 @@
         <v>117.26354845244313</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>571.39</v>
       </c>
@@ -2589,7 +2611,7 @@
         <v>117.39792435989429</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>369.82</v>
       </c>
@@ -2601,7 +2623,7 @@
         <v>117.57611811151372</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>369.33</v>
       </c>
@@ -2613,7 +2635,7 @@
         <v>117.86748977878862</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>936.89</v>
       </c>
@@ -2625,7 +2647,7 @@
         <v>118.13339879815132</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>418.72</v>
       </c>
@@ -2637,7 +2659,7 @@
         <v>119.78410393580434</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>368.89</v>
       </c>
@@ -2649,7 +2671,7 @@
         <v>119.9734338149584</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>365.73</v>
       </c>
@@ -2661,7 +2683,7 @@
         <v>120.80496541164246</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>366.16</v>
       </c>
@@ -2673,7 +2695,7 @@
         <v>121.03178938169106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>363.63</v>
       </c>
@@ -2685,7 +2707,7 @@
         <v>121.14787008772655</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>424.09</v>
       </c>
@@ -2697,7 +2719,7 @@
         <v>121.17003466245373</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>582.55999999999995</v>
       </c>
@@ -2709,7 +2731,7 @@
         <v>121.77286459763801</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>421.65</v>
       </c>
@@ -2721,7 +2743,7 @@
         <v>121.87122020633228</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>608.72</v>
       </c>
@@ -2733,7 +2755,7 @@
         <v>123.20771454856092</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>359.44</v>
       </c>
@@ -2745,7 +2767,7 @@
         <v>123.26953038059203</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>407.64</v>
       </c>
@@ -2757,7 +2779,7 @@
         <v>123.59189480914532</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>585.29</v>
       </c>
@@ -2769,7 +2791,7 @@
         <v>124.5724341779289</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>570.09</v>
       </c>
@@ -2781,7 +2803,7 @@
         <v>124.75398621270327</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>344.72</v>
       </c>
@@ -2793,7 +2815,7 @@
         <v>125.80064980273846</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>566.5</v>
       </c>
@@ -2805,7 +2827,7 @@
         <v>125.95057369814651</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>876.26</v>
       </c>
@@ -2817,7 +2839,7 @@
         <v>126.36774473329832</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>591.39</v>
       </c>
@@ -2829,7 +2851,7 @@
         <v>127.1580513705</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>565.66</v>
       </c>
@@ -2841,7 +2863,7 @@
         <v>127.31322702683592</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>633.29</v>
       </c>
@@ -2853,7 +2875,7 @@
         <v>127.55451688799759</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>569.02</v>
       </c>
@@ -2865,7 +2887,7 @@
         <v>128.84432884608626</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>549.91</v>
       </c>
@@ -2877,7 +2899,7 @@
         <v>130.17220999799969</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>560.67999999999995</v>
       </c>
@@ -2889,7 +2911,7 @@
         <v>130.98202183063424</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>552.57000000000005</v>
       </c>
@@ -2901,7 +2923,7 @@
         <v>131.89641131440359</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>375.98</v>
       </c>
@@ -2913,7 +2935,7 @@
         <v>132.31288898345656</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>835.74</v>
       </c>
@@ -2925,7 +2947,7 @@
         <v>132.68002010194556</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>549.6</v>
       </c>
@@ -2937,7 +2959,7 @@
         <v>132.69832605531292</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>552.80999999999995</v>
       </c>
@@ -2949,7 +2971,7 @@
         <v>132.80331397767767</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>569.80999999999995</v>
       </c>
@@ -2957,11 +2979,11 @@
         <v>756.89</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C129" si="3">(B98/A98)*100</f>
+        <f t="shared" ref="C98:C101" si="3">(B98/A98)*100</f>
         <v>132.83199663045576</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>866.55</v>
       </c>
@@ -2973,7 +2995,7 @@
         <v>133.06675898678668</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>539.80999999999995</v>
       </c>
@@ -2985,7 +3007,7 @@
         <v>136.57212722995129</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>759.28</v>
       </c>
@@ -3001,7 +3023,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
     <sortCondition ref="C2:C101"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3014,9 +3036,9 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3030,7 +3052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>319.12</v>
       </c>
@@ -3044,7 +3066,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>319.27</v>
       </c>
@@ -3058,7 +3080,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>346.07</v>
       </c>
@@ -3072,7 +3094,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>319.04000000000002</v>
       </c>
@@ -3086,7 +3108,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>347.05</v>
       </c>
@@ -3100,7 +3122,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>347.25</v>
       </c>
@@ -3114,7 +3136,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>311.01</v>
       </c>
@@ -3128,7 +3150,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>308.95999999999998</v>
       </c>
@@ -3142,7 +3164,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>346.96</v>
       </c>
@@ -3156,7 +3178,7 @@
         <v>91.13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>409.24</v>
       </c>
@@ -3170,7 +3192,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>418.72</v>
       </c>
@@ -3184,7 +3206,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>421.65</v>
       </c>
@@ -3198,7 +3220,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>424.09</v>
       </c>
@@ -3212,7 +3234,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>386.58</v>
       </c>
@@ -3226,7 +3248,7 @@
         <v>97.82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>426.57</v>
       </c>
@@ -3240,7 +3262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>443</v>
       </c>
@@ -3254,7 +3276,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>527.83000000000004</v>
       </c>
@@ -3268,7 +3290,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>428.38</v>
       </c>
@@ -3282,7 +3304,7 @@
         <v>34.53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>408.74</v>
       </c>
@@ -3296,7 +3318,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>389.19</v>
       </c>
@@ -3310,7 +3332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>404.32</v>
       </c>
@@ -3324,7 +3346,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>694.83</v>
       </c>
@@ -3338,7 +3360,7 @@
         <v>41.09</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>964.53</v>
       </c>
@@ -3352,7 +3374,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>423.51</v>
       </c>
@@ -3366,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>996.92</v>
       </c>
@@ -3380,7 +3402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>977.52</v>
       </c>
@@ -3394,7 +3416,7 @@
         <v>44.03</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>737.48</v>
       </c>
@@ -3408,7 +3430,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>487</v>
       </c>
@@ -3422,7 +3444,7 @@
         <v>48.07</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>546.25</v>
       </c>
@@ -3436,7 +3458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>706.58</v>
       </c>
@@ -3450,7 +3472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>407.64</v>
       </c>
@@ -3464,7 +3486,7 @@
         <v>57.38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>375.98</v>
       </c>
@@ -3478,7 +3500,7 @@
         <v>58.33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>668.27</v>
       </c>
@@ -3492,7 +3514,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>404.72</v>
       </c>
@@ -3506,7 +3528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>679.74</v>
       </c>
@@ -3520,7 +3542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>576.71</v>
       </c>
@@ -3534,7 +3556,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>571.39</v>
       </c>
@@ -3548,7 +3570,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>896.73</v>
       </c>
@@ -3562,7 +3584,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>582.55999999999995</v>
       </c>
@@ -3576,7 +3598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1240</v>
       </c>
@@ -3590,7 +3612,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>906.36</v>
       </c>
@@ -3604,7 +3626,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>685.02</v>
       </c>
@@ -3618,7 +3640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1320</v>
       </c>
@@ -3632,7 +3654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>405.91</v>
       </c>
@@ -3646,7 +3668,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>591.39</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>67.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>633.29</v>
       </c>
@@ -3674,7 +3696,7 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>815.01</v>
       </c>
@@ -3688,7 +3710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1070</v>
       </c>
@@ -3702,7 +3724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1090</v>
       </c>
@@ -3716,7 +3738,7 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>569.80999999999995</v>
       </c>
@@ -3730,7 +3752,7 @@
         <v>81.95</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>608.72</v>
       </c>
@@ -3744,7 +3766,7 @@
         <v>84.02</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1350</v>
       </c>
@@ -3758,7 +3780,7 @@
         <v>80.349999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>759.28</v>
       </c>
@@ -3772,7 +3794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1870</v>
       </c>
@@ -3786,7 +3808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>585.29</v>
       </c>
@@ -3800,7 +3822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>866.55</v>
       </c>
@@ -3814,7 +3836,7 @@
         <v>94.15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>359.44</v>
       </c>
@@ -3828,7 +3850,7 @@
         <v>75.55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>876.26</v>
       </c>
@@ -3842,7 +3864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>376.4</v>
       </c>
@@ -3856,7 +3878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1520</v>
       </c>
@@ -3870,7 +3892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>363.63</v>
       </c>
@@ -3884,7 +3906,7 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>552.80999999999995</v>
       </c>
@@ -3898,7 +3920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>375.23</v>
       </c>
@@ -3912,7 +3934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>369.82</v>
       </c>
@@ -3926,7 +3948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>549.6</v>
       </c>
@@ -3940,7 +3962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>539.80999999999995</v>
       </c>
@@ -3954,7 +3976,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>376.92</v>
       </c>
@@ -3968,7 +3990,7 @@
         <v>75.92</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>365.73</v>
       </c>
@@ -3982,7 +4004,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>1810</v>
       </c>
@@ -3996,7 +4018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>1810</v>
       </c>
@@ -4010,7 +4032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>1790</v>
       </c>
@@ -4024,7 +4046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>1720</v>
       </c>
@@ -4038,7 +4060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>1780</v>
       </c>
@@ -4052,7 +4074,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>982.06</v>
       </c>
@@ -4066,7 +4088,7 @@
         <v>94.28</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>552.57000000000005</v>
       </c>
@@ -4080,7 +4102,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>1770</v>
       </c>
@@ -4094,7 +4116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>369.33</v>
       </c>
@@ -4108,7 +4130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>570.09</v>
       </c>
@@ -4122,7 +4144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>375.68</v>
       </c>
@@ -4136,7 +4158,7 @@
         <v>86.22</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>366.16</v>
       </c>
@@ -4150,7 +4172,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>368.89</v>
       </c>
@@ -4164,7 +4186,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>560.67999999999995</v>
       </c>
@@ -4178,7 +4200,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>566.5</v>
       </c>
@@ -4192,7 +4214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>344.72</v>
       </c>
@@ -4206,7 +4228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2940</v>
       </c>
@@ -4220,7 +4242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2860</v>
       </c>
@@ -4234,7 +4256,7 @@
         <v>97.58</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>835.74</v>
       </c>
@@ -4248,7 +4270,7 @@
         <v>94.37</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>569.02</v>
       </c>
@@ -4262,7 +4284,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2510</v>
       </c>
@@ -4276,7 +4298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>1570</v>
       </c>
@@ -4290,7 +4312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>942.79</v>
       </c>
@@ -4304,7 +4326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>1370</v>
       </c>
@@ -4318,7 +4340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>1670</v>
       </c>
@@ -4332,7 +4354,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>961.19</v>
       </c>
@@ -4346,7 +4368,7 @@
         <v>93.32</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>936.89</v>
       </c>
@@ -4360,7 +4382,7 @@
         <v>94.35</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>549.91</v>
       </c>
@@ -4374,7 +4396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>565.66</v>
       </c>
@@ -4388,7 +4410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>1750</v>
       </c>
@@ -4402,7 +4424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>937.93</v>
       </c>
@@ -4416,7 +4438,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>2720</v>
       </c>
@@ -4431,7 +4453,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4441,13 +4463,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555D9EBE-4FC4-4735-BC9D-F928E5AEF8CB}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4464,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>64</v>
       </c>
@@ -4481,7 +4503,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>64</v>
       </c>
@@ -4498,7 +4520,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>64</v>
       </c>
@@ -4515,7 +4537,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>64</v>
       </c>
@@ -4532,7 +4554,7 @@
         <v>10075.903609999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>64</v>
       </c>
@@ -4549,7 +4571,7 @@
         <v>19770.596669999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>64</v>
       </c>
@@ -4566,7 +4588,7 @@
         <v>20155.880669999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>64</v>
       </c>
@@ -4583,7 +4605,7 @@
         <v>26867.76152</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>64</v>
       </c>
@@ -4600,7 +4622,7 @@
         <v>29613.386879999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>64</v>
       </c>
@@ -4617,7 +4639,7 @@
         <v>34262.344620000003</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>64</v>
       </c>
@@ -4634,7 +4656,7 @@
         <v>35566.432399999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>64</v>
       </c>
@@ -4651,7 +4673,7 @@
         <v>37801.70205</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>64</v>
       </c>
@@ -4668,7 +4690,7 @@
         <v>41910.915090000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>64</v>
       </c>
@@ -4685,7 +4707,7 @@
         <v>66403.275810000006</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>64</v>
       </c>
@@ -4702,7 +4724,7 @@
         <v>67490.91605</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>64</v>
       </c>
@@ -4719,7 +4741,7 @@
         <v>73620.572769999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>64</v>
       </c>
@@ -4736,7 +4758,7 @@
         <v>75228.571429999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>64</v>
       </c>
@@ -4753,7 +4775,7 @@
         <v>75533.649980000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>64</v>
       </c>
@@ -4770,7 +4792,7 @@
         <v>79580.679860000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>64</v>
       </c>
@@ -4787,7 +4809,7 @@
         <v>79812.835760000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>64</v>
       </c>
@@ -4804,7 +4826,7 @@
         <v>82059.022270000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>64</v>
       </c>
@@ -4821,7 +4843,7 @@
         <v>83375.268209999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>64</v>
       </c>
@@ -4838,7 +4860,7 @@
         <v>85014.996780000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>64</v>
       </c>
@@ -4855,7 +4877,7 @@
         <v>86704.508979999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>64</v>
       </c>
@@ -4872,7 +4894,7 @@
         <v>88748.948340000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>128</v>
       </c>
@@ -4889,7 +4911,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>128</v>
       </c>
@@ -4906,7 +4928,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>128</v>
       </c>
@@ -4923,7 +4945,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>128</v>
       </c>
@@ -4940,7 +4962,7 @@
         <v>20010.04016</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>128</v>
       </c>
@@ -4957,7 +4979,7 @@
         <v>20014.056219999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>128</v>
       </c>
@@ -4974,7 +4996,7 @@
         <v>29979.74756</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>128</v>
       </c>
@@ -4991,7 +5013,7 @@
         <v>39890.533560000003</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>128</v>
       </c>
@@ -5008,7 +5030,7 @@
         <v>39891.537579999997</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>128</v>
       </c>
@@ -5025,7 +5047,7 @@
         <v>39995.955249999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>128</v>
       </c>
@@ -5042,7 +5064,7 @@
         <v>42260.814689999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>128</v>
       </c>
@@ -5059,7 +5081,7 @@
         <v>49657.028109999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>128</v>
       </c>
@@ -5076,7 +5098,7 @@
         <v>57042.766300000003</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>128</v>
       </c>
@@ -5093,7 +5115,7 @@
         <v>58527.954680000003</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>128</v>
       </c>
@@ -5110,7 +5132,7 @@
         <v>60468.550389999997</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>128</v>
       </c>
@@ -5127,7 +5149,7 @@
         <v>74052.91115</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>128</v>
       </c>
@@ -5144,7 +5166,7 @@
         <v>75878.332240000003</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>128</v>
       </c>
@@ -5161,7 +5183,7 @@
         <v>76018.326350000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>128</v>
       </c>
@@ -5178,7 +5200,7 @@
         <v>80584.202179999993</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>128</v>
       </c>
@@ -5195,7 +5217,7 @@
         <v>82582.022459999993</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>128</v>
       </c>
@@ -5212,7 +5234,7 @@
         <v>87072.8802</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>128</v>
       </c>
@@ -5229,7 +5251,7 @@
         <v>88560.169250000006</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>128</v>
       </c>
@@ -5246,7 +5268,7 @@
         <v>94047.0049</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>128</v>
       </c>
@@ -5263,7 +5285,7 @@
         <v>97272.103059999994</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>128</v>
       </c>
@@ -5280,7 +5302,7 @@
         <v>97355.192200000005</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>256</v>
       </c>
@@ -5297,7 +5319,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>256</v>
       </c>
@@ -5314,7 +5336,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>256</v>
       </c>
@@ -5331,7 +5353,7 @@
         <v>19824.297190000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>256</v>
       </c>
@@ -5348,7 +5370,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>256</v>
       </c>
@@ -5365,7 +5387,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>256</v>
       </c>
@@ -5382,7 +5404,7 @@
         <v>37224.0677</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>256</v>
       </c>
@@ -5399,7 +5421,7 @@
         <v>39577.911650000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>256</v>
       </c>
@@ -5416,7 +5438,7 @@
         <v>40019.210169999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>256</v>
       </c>
@@ -5433,7 +5455,7 @@
         <v>50002.008029999997</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>256</v>
       </c>
@@ -5450,7 +5472,7 @@
         <v>59977.471790000003</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>256</v>
       </c>
@@ -5467,7 +5489,7 @@
         <v>65205.886749999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>256</v>
       </c>
@@ -5484,7 +5506,7 @@
         <v>66797.204400000002</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>256</v>
       </c>
@@ -5501,7 +5523,7 @@
         <v>80373.055429999993</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>256</v>
       </c>
@@ -5518,7 +5540,7 @@
         <v>91213.924960000004</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>256</v>
       </c>
@@ -5535,7 +5557,7 @@
         <v>96053.590549999994</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>256</v>
       </c>
@@ -5552,7 +5574,7 @@
         <v>96610.948560000004</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>256</v>
       </c>
@@ -5569,7 +5591,7 @@
         <v>96895.629700000005</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>256</v>
       </c>
@@ -5586,7 +5608,7 @@
         <v>99004.603700000007</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>512</v>
       </c>
@@ -5603,7 +5625,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>512</v>
       </c>
@@ -5620,7 +5642,7 @@
         <v>28045.18072</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>512</v>
       </c>
@@ -5637,7 +5659,7 @@
         <v>29887.119910000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>512</v>
       </c>
@@ -5654,7 +5676,7 @@
         <v>30018.57908</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>512</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>39987.951809999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>512</v>
       </c>
@@ -5688,7 +5710,7 @@
         <v>40012.048190000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>512</v>
       </c>
@@ -5705,7 +5727,7 @@
         <v>50141.566270000003</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>512</v>
       </c>
@@ -5722,7 +5744,7 @@
         <v>50213.85542</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>512</v>
       </c>
@@ -5739,7 +5761,7 @@
         <v>58838.372969999997</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>512</v>
       </c>
@@ -5756,7 +5778,7 @@
         <v>69936.115890000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>512</v>
       </c>
@@ -5773,7 +5795,7 @@
         <v>79962.947029999996</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>512</v>
       </c>
@@ -5790,7 +5812,7 @@
         <v>79962.947029999996</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>512</v>
       </c>
@@ -5807,7 +5829,7 @@
         <v>80161.07286</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>512</v>
       </c>
@@ -5824,7 +5846,7 @@
         <v>80243.66992</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>512</v>
       </c>
@@ -5841,7 +5863,7 @@
         <v>80257.458410000007</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>512</v>
       </c>
@@ -5858,7 +5880,7 @@
         <v>81342.197360000006</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>512</v>
       </c>
@@ -5875,7 +5897,7 @@
         <v>95394.587880000006</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>512</v>
       </c>
@@ -5892,7 +5914,7 @@
         <v>96131.200989999998</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>512</v>
       </c>
@@ -5909,7 +5931,7 @@
         <v>96230.555559999993</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>512</v>
       </c>
@@ -5926,7 +5948,7 @@
         <v>98002.046279999995</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>1024</v>
       </c>
@@ -5943,7 +5965,7 @@
         <v>10918.330459999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>1024</v>
       </c>
@@ -5960,7 +5982,7 @@
         <v>18752.008030000001</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>1024</v>
       </c>
@@ -5977,7 +5999,7 @@
         <v>19227.911649999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>1024</v>
       </c>
@@ -5994,7 +6016,7 @@
         <v>19227.911649999998</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>1024</v>
       </c>
@@ -6011,7 +6033,7 @@
         <v>29122.43259</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>1024</v>
       </c>
@@ -6028,7 +6050,7 @@
         <v>29716.838779999998</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>1024</v>
       </c>
@@ -6045,7 +6067,7 @@
         <v>29851.376939999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>1024</v>
       </c>
@@ -6062,7 +6084,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>1024</v>
       </c>
@@ -6079,7 +6101,7 @@
         <v>40048.192770000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>1024</v>
       </c>
@@ -6096,7 +6118,7 @@
         <v>60047.016640000002</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>1024</v>
       </c>
@@ -6113,7 +6135,7 @@
         <v>90105.253049999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>1024</v>
       </c>
@@ -6130,7 +6152,7 @@
         <v>90848.578729999994</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>1024</v>
       </c>
@@ -6147,7 +6169,7 @@
         <v>94122.068360000005</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>1024</v>
       </c>
@@ -6168,183 +6190,335 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">
     <sortCondition ref="A2:A101"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B8854-1686-4C0A-89CD-E823D6387B1C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="3">
         <v>64</v>
       </c>
-      <c r="B2">
-        <v>311.01</v>
-      </c>
-      <c r="C2">
-        <v>27030</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="3">
+        <v>300</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="E2" s="3">
+        <v>10040.7630522088</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="3">
         <v>64</v>
       </c>
-      <c r="B3">
-        <v>346.96</v>
-      </c>
-      <c r="C3">
-        <v>29966</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="3">
+        <v>400</v>
+      </c>
+      <c r="C3" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D3" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E3" s="2">
+        <v>21010.441767068402</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="3">
         <v>64</v>
       </c>
-      <c r="B4">
-        <v>369.82</v>
-      </c>
-      <c r="C4">
-        <v>39039</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="3">
+        <v>500</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D4" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="E4" s="2">
+        <v>30795.0659781988</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="3">
         <v>64</v>
       </c>
-      <c r="B5">
-        <v>389.19</v>
-      </c>
-      <c r="C5">
-        <v>35239</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="3">
+        <v>600</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D5" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E5" s="2">
+        <v>34328.973034997398</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="3">
         <v>64</v>
       </c>
-      <c r="B6">
-        <v>405.91</v>
-      </c>
-      <c r="C6">
-        <v>40025</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="3">
+        <v>700</v>
+      </c>
+      <c r="C6" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D6" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="E6" s="2">
+        <v>41477.524383247401</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="3">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3">
+        <v>800</v>
+      </c>
+      <c r="C7" s="3">
+        <v>80000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44542.641996557802</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="3">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>900</v>
+      </c>
+      <c r="C8" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2">
+        <v>46788.826735513801</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="3">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2">
+        <v>48124.713138267798</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="3">
         <v>1024</v>
       </c>
-      <c r="B7">
-        <v>409.24</v>
-      </c>
-      <c r="C7">
-        <v>34650</v>
-      </c>
-      <c r="D7">
+      <c r="B10" s="3">
+        <v>300</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="E10" s="2">
+        <v>10031.124497991899</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="3">
         <v>1024</v>
       </c>
-      <c r="B8">
-        <v>964.53</v>
-      </c>
-      <c r="C8">
-        <v>81827</v>
-      </c>
-      <c r="D8">
+      <c r="B11" s="3">
+        <v>400</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D11" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="E11" s="2">
+        <v>10248.852553069401</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="3">
         <v>1024</v>
       </c>
-      <c r="B9">
-        <v>1240</v>
-      </c>
-      <c r="C9">
-        <v>105102</v>
-      </c>
-      <c r="D9">
+      <c r="B12" s="3">
+        <v>500</v>
+      </c>
+      <c r="C12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D12" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E12" s="2">
+        <v>25634.939759036301</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="3">
         <v>1024</v>
       </c>
-      <c r="B10">
-        <v>2510</v>
-      </c>
-      <c r="C10">
-        <v>213229</v>
-      </c>
-      <c r="D10">
+      <c r="B13" s="3">
+        <v>600</v>
+      </c>
+      <c r="C13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D13" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="E13" s="2">
+        <v>31460.126219162601</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="3">
         <v>1024</v>
       </c>
-      <c r="B11">
-        <v>2720</v>
-      </c>
-      <c r="C11">
-        <v>231082</v>
-      </c>
-      <c r="D11">
+      <c r="B14" s="3">
+        <v>700</v>
+      </c>
+      <c r="C14" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D14" s="3">
         <v>70</v>
       </c>
+      <c r="E14" s="2">
+        <v>33814.056224899898</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="3">
+        <v>800</v>
+      </c>
+      <c r="C15" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44239.830751577902</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B16" s="3">
+        <v>900</v>
+      </c>
+      <c r="C16" s="3">
+        <v>80000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2">
+        <v>46816.537578887299</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2">
+        <v>52136.560527825997</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/serving/experiments/data/result_vm1.xlsx
+++ b/serving/experiments/data/result_vm1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyowonlee/Desktop/Inferencing-CPU-for-network-performance-in-virtualized-environments/serving/experiments/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyowon Lee\Desktop\Inferencing-CPU-for-network-performance-in-virtualized-environments\serving\experiments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771E534-698D-4743-8107-5F2B01708F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF9296-CACD-449E-AA46-DBDC72838C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="3" activeTab="4" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
+    <workbookView minimized="1" xWindow="1755" yWindow="810" windowWidth="11625" windowHeight="11565" firstSheet="1" activeTab="4" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
   </bookViews>
   <sheets>
     <sheet name="slo_throughput" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>SLO</t>
   </si>
@@ -131,7 +131,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>throughput</t>
+    <t>throughput(ex)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_usage(ex)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slo_throughput(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdev</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +242,2939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>CDF (total)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu70_pkt64,1024'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'cpu70_pkt64,1024'!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>99.893333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.442499999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.161666666666662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.031428571428577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.03125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.898888888888884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.457000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122.98333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129.98800000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138.52333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121.94857142857143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130.73249999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.80444444444444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126.60799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'cpu70_pkt64,1024'!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.51111312124171504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50537287904313644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51208908448885704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30633667670319603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13200756203681971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0054992944837306E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8428757675866146E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8052739331444742E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77785139002328307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4345112386576212</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83856205557240782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89635219953852396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76789264812317226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84431027458297736</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77614736907321835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8107507668370747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A8B-47AB-ADD0-6BA01FE73078}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1700673151"/>
+        <c:axId val="1700681471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1700673151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700681471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1700681471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700673151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>CDF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> (pkt size 64)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'cpu70_pkt64,1024'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.893333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.442499999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.161666666666662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.031428571428577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.03125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.898888888888884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.457000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'cpu70_pkt64,1024'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.51111312124171504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50537287904313644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51208908448885704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30633667670319603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13200756203681971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0054992944837306E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8428757675866146E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8052739331444742E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1184-4D70-A25F-69847E572BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1886635215"/>
+        <c:axId val="1886633135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1886635215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886633135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1886633135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886635215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>CDF (pkt size 1024)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'cpu70_pkt64,1024'!$H$10:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>122.98333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.98800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.52333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.94857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.73249999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122.80444444444444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126.60799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'cpu70_pkt64,1024'!$I$10:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.77785139002328307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4345112386576212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83856205557240782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89635219953852396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76789264812317226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84431027458297736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77614736907321835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8107507668370747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E64F-4104-AE4B-F1D9C66E0008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1695684815"/>
+        <c:axId val="1610949455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1695684815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1610949455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1610949455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695684815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BFC497-4DF3-432D-932C-607FBFC74143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5561D82-9A4B-4AC7-8A3A-73EC8DF00DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EE4D1B-3F7E-4E99-9162-713FC32015BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,15 +3477,15 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -540,7 +3493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>319.12</v>
       </c>
@@ -552,7 +3505,7 @@
         <v>94.036725996490347</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>319.27</v>
       </c>
@@ -564,7 +3517,7 @@
         <v>93.992545494409114</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>346.07</v>
       </c>
@@ -577,7 +3530,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>319.04000000000002</v>
       </c>
@@ -590,7 +3543,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>347.05</v>
       </c>
@@ -602,7 +3555,7 @@
         <v>87.935455986169146</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>347.25</v>
       </c>
@@ -614,7 +3567,7 @@
         <v>84.262059035277176</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>311.01</v>
       </c>
@@ -626,7 +3579,7 @@
         <v>94.080576187260874</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>308.95999999999998</v>
       </c>
@@ -638,7 +3591,7 @@
         <v>94.704816157431395</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>346.96</v>
       </c>
@@ -650,7 +3603,7 @@
         <v>80.502075167166254</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>409.24</v>
       </c>
@@ -662,7 +3615,7 @@
         <v>88.10477959143779</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>418.72</v>
       </c>
@@ -674,7 +3627,7 @@
         <v>119.78410393580434</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>421.65</v>
       </c>
@@ -686,7 +3639,7 @@
         <v>121.87122020633228</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>424.09</v>
       </c>
@@ -698,7 +3651,7 @@
         <v>121.17003466245373</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>386.58</v>
       </c>
@@ -710,7 +3663,7 @@
         <v>92.30948316001863</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>426.57</v>
       </c>
@@ -722,7 +3675,7 @@
         <v>103.74616123965585</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>443</v>
       </c>
@@ -734,7 +3687,7 @@
         <v>101.14221218961626</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>527.83000000000004</v>
       </c>
@@ -746,7 +3699,7 @@
         <v>92.025841653562694</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>428.38</v>
       </c>
@@ -758,7 +3711,7 @@
         <v>95.765441897380839</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>408.74</v>
       </c>
@@ -770,7 +3723,7 @@
         <v>98.182218525223846</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>389.19</v>
       </c>
@@ -782,7 +3735,7 @@
         <v>93.208972481307327</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>404.32</v>
       </c>
@@ -794,7 +3747,7 @@
         <v>111.88415116739216</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>694.83</v>
       </c>
@@ -806,7 +3759,7 @@
         <v>89.345595325475273</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>964.53</v>
       </c>
@@ -818,7 +3771,7 @@
         <v>77.425274486019092</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>423.51</v>
       </c>
@@ -830,7 +3783,7 @@
         <v>110.52159335080636</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>996.92</v>
       </c>
@@ -842,7 +3795,7 @@
         <v>75.866669341572049</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>977.52</v>
       </c>
@@ -854,7 +3807,7 @@
         <v>73.622023078811679</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>737.48</v>
       </c>
@@ -866,7 +3819,7 @@
         <v>89.880403536367098</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>487</v>
       </c>
@@ -878,7 +3831,7 @@
         <v>105.59958932238193</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>546.25</v>
       </c>
@@ -890,7 +3843,7 @@
         <v>110.41098398169336</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>706.58</v>
       </c>
@@ -902,7 +3855,7 @@
         <v>93.989357185315185</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>407.64</v>
       </c>
@@ -914,7 +3867,7 @@
         <v>123.59189480914532</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>375.98</v>
       </c>
@@ -926,7 +3879,7 @@
         <v>132.31288898345656</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>668.27</v>
       </c>
@@ -938,7 +3891,7 @@
         <v>101.93933589716733</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404.72</v>
       </c>
@@ -950,7 +3903,7 @@
         <v>115.94188574817157</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>679.74</v>
       </c>
@@ -962,7 +3915,7 @@
         <v>105.97140082972902</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>576.71</v>
       </c>
@@ -974,7 +3927,7 @@
         <v>115.46704582892613</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>571.39</v>
       </c>
@@ -986,7 +3939,7 @@
         <v>117.39792435989429</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>896.73</v>
       </c>
@@ -998,7 +3951,7 @@
         <v>92.389013415409309</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>582.55999999999995</v>
       </c>
@@ -1010,7 +3963,7 @@
         <v>121.77286459763801</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1240</v>
       </c>
@@ -1022,7 +3975,7 @@
         <v>75.29435483870968</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>906.36</v>
       </c>
@@ -1034,7 +3987,7 @@
         <v>93.332671344719529</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>685.02</v>
       </c>
@@ -1046,7 +3999,7 @@
         <v>108.92236723015387</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1320</v>
       </c>
@@ -1058,7 +4011,7 @@
         <v>72.063636363636363</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>405.91</v>
       </c>
@@ -1070,7 +4023,7 @@
         <v>115.13636027690868</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>591.39</v>
       </c>
@@ -1082,7 +4035,7 @@
         <v>127.1580513705</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>633.29</v>
       </c>
@@ -1094,7 +4047,7 @@
         <v>127.55451688799759</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>815.01</v>
       </c>
@@ -1106,7 +4059,7 @@
         <v>110.70416313910259</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1070</v>
       </c>
@@ -1118,7 +4071,7 @@
         <v>99.925233644859816</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1090</v>
       </c>
@@ -1130,7 +4083,7 @@
         <v>92.299082568807336</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>569.80999999999995</v>
       </c>
@@ -1142,7 +4095,7 @@
         <v>132.83199663045576</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>608.72</v>
       </c>
@@ -1154,7 +4107,7 @@
         <v>123.20771454856092</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1350</v>
       </c>
@@ -1166,7 +4119,7 @@
         <v>87.111851851851853</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>759.28</v>
       </c>
@@ -1178,7 +4131,7 @@
         <v>149.91570961963967</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1870</v>
       </c>
@@ -1190,7 +4143,7 @@
         <v>80.326737967914426</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>585.29</v>
       </c>
@@ -1202,7 +4155,7 @@
         <v>124.5724341779289</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>866.55</v>
       </c>
@@ -1214,7 +4167,7 @@
         <v>133.06675898678668</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>359.44</v>
       </c>
@@ -1226,7 +4179,7 @@
         <v>123.26953038059203</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>876.26</v>
       </c>
@@ -1238,7 +4191,7 @@
         <v>126.36774473329832</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>376.4</v>
       </c>
@@ -1250,7 +4203,7 @@
         <v>114.84856535600427</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1520</v>
       </c>
@@ -1262,7 +4215,7 @@
         <v>103.91710526315789</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>363.63</v>
       </c>
@@ -1274,7 +4227,7 @@
         <v>121.14787008772655</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>552.80999999999995</v>
       </c>
@@ -1286,7 +4239,7 @@
         <v>132.80331397767767</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>375.23</v>
       </c>
@@ -1298,7 +4251,7 @@
         <v>115.61708818591264</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>369.82</v>
       </c>
@@ -1310,7 +4263,7 @@
         <v>117.57611811151372</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>549.6</v>
       </c>
@@ -1322,7 +4275,7 @@
         <v>132.69832605531292</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>539.80999999999995</v>
       </c>
@@ -1334,7 +4287,7 @@
         <v>136.57212722995129</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>376.92</v>
       </c>
@@ -1346,7 +4299,7 @@
         <v>116.67197283243127</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>365.73</v>
       </c>
@@ -1358,7 +4311,7 @@
         <v>120.80496541164246</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1810</v>
       </c>
@@ -1370,7 +4323,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1810</v>
       </c>
@@ -1382,7 +4335,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1790</v>
       </c>
@@ -1394,7 +4347,7 @@
         <v>81.232960893854738</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1720</v>
       </c>
@@ -1406,7 +4359,7 @@
         <v>82.633139534883711</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1780</v>
       </c>
@@ -1418,7 +4371,7 @@
         <v>83.661797752808994</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>982.06</v>
       </c>
@@ -1430,7 +4383,7 @@
         <v>114.28222308209274</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>552.57000000000005</v>
       </c>
@@ -1442,7 +4395,7 @@
         <v>131.89641131440359</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1770</v>
       </c>
@@ -1454,7 +4407,7 @@
         <v>83.55367231638418</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>369.33</v>
       </c>
@@ -1466,7 +4419,7 @@
         <v>117.86748977878862</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>570.09</v>
       </c>
@@ -1478,7 +4431,7 @@
         <v>124.75398621270327</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>375.68</v>
       </c>
@@ -1490,7 +4443,7 @@
         <v>115.90183134582624</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>366.16</v>
       </c>
@@ -1502,7 +4455,7 @@
         <v>121.03178938169106</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>368.89</v>
       </c>
@@ -1514,7 +4467,7 @@
         <v>119.9734338149584</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>560.67999999999995</v>
       </c>
@@ -1526,7 +4479,7 @@
         <v>130.98202183063424</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>566.5</v>
       </c>
@@ -1538,7 +4491,7 @@
         <v>125.95057369814651</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>344.72</v>
       </c>
@@ -1550,7 +4503,7 @@
         <v>125.80064980273846</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2940</v>
       </c>
@@ -1562,7 +4515,7 @@
         <v>63.354081632653056</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2860</v>
       </c>
@@ -1574,7 +4527,7 @@
         <v>67.05489510489511</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>835.74</v>
       </c>
@@ -1586,7 +4539,7 @@
         <v>132.68002010194556</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>569.02</v>
       </c>
@@ -1598,7 +4551,7 @@
         <v>128.84432884608626</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2510</v>
       </c>
@@ -1610,7 +4563,7 @@
         <v>76.321912350597614</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1570</v>
       </c>
@@ -1622,7 +4575,7 @@
         <v>94.212738853503183</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>942.79</v>
       </c>
@@ -1634,7 +4587,7 @@
         <v>114.57906850942416</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1370</v>
       </c>
@@ -1646,7 +4599,7 @@
         <v>110.91824817518247</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1670</v>
       </c>
@@ -1658,7 +4611,7 @@
         <v>89.533532934131742</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>961.19</v>
       </c>
@@ -1670,7 +4623,7 @@
         <v>116.20387228331548</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>936.89</v>
       </c>
@@ -1682,7 +4635,7 @@
         <v>118.13339879815132</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>549.91</v>
       </c>
@@ -1694,7 +4647,7 @@
         <v>130.17220999799969</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>565.66</v>
       </c>
@@ -1706,7 +4659,7 @@
         <v>127.31322702683592</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1750</v>
       </c>
@@ -1718,7 +4671,7 @@
         <v>83.489142857142852</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>937.93</v>
       </c>
@@ -1730,7 +4683,7 @@
         <v>117.26354845244313</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2720</v>
       </c>
@@ -1753,15 +4706,15 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +4722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2940</v>
       </c>
@@ -1788,7 +4741,7 @@
         <v>105.85604948963632</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2860</v>
       </c>
@@ -1807,7 +4760,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2720</v>
       </c>
@@ -1825,7 +4778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1320</v>
       </c>
@@ -1843,7 +4796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>977.52</v>
       </c>
@@ -1861,7 +4814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1240</v>
       </c>
@@ -1879,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>996.92</v>
       </c>
@@ -1891,7 +4844,7 @@
         <v>75.866669341572049</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2510</v>
       </c>
@@ -1909,7 +4862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>964.53</v>
       </c>
@@ -1927,7 +4880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1870</v>
       </c>
@@ -1939,7 +4892,7 @@
         <v>80.326737967914426</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>346.96</v>
       </c>
@@ -1951,7 +4904,7 @@
         <v>80.502075167166254</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1790</v>
       </c>
@@ -1963,7 +4916,7 @@
         <v>81.232960893854738</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1810</v>
       </c>
@@ -1975,7 +4928,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1810</v>
       </c>
@@ -1987,7 +4940,7 @@
         <v>81.993922651933687</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1720</v>
       </c>
@@ -1999,7 +4952,7 @@
         <v>82.633139534883711</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1750</v>
       </c>
@@ -2011,7 +4964,7 @@
         <v>83.489142857142852</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1770</v>
       </c>
@@ -2023,7 +4976,7 @@
         <v>83.55367231638418</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1780</v>
       </c>
@@ -2035,7 +4988,7 @@
         <v>83.661797752808994</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>347.25</v>
       </c>
@@ -2047,7 +5000,7 @@
         <v>84.262059035277176</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1350</v>
       </c>
@@ -2059,7 +5012,7 @@
         <v>87.111851851851853</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>347.05</v>
       </c>
@@ -2071,7 +5024,7 @@
         <v>87.935455986169146</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>409.24</v>
       </c>
@@ -2083,7 +5036,7 @@
         <v>88.10477959143779</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>346.07</v>
       </c>
@@ -2095,7 +5048,7 @@
         <v>88.184471349726934</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>694.83</v>
       </c>
@@ -2107,7 +5060,7 @@
         <v>89.345595325475273</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1670</v>
       </c>
@@ -2119,7 +5072,7 @@
         <v>89.533532934131742</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>737.48</v>
       </c>
@@ -2131,7 +5084,7 @@
         <v>89.880403536367098</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>527.83000000000004</v>
       </c>
@@ -2143,7 +5096,7 @@
         <v>92.025841653562694</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1090</v>
       </c>
@@ -2155,7 +5108,7 @@
         <v>92.299082568807336</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>386.58</v>
       </c>
@@ -2167,7 +5120,7 @@
         <v>92.30948316001863</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>896.73</v>
       </c>
@@ -2179,7 +5132,7 @@
         <v>92.389013415409309</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>389.19</v>
       </c>
@@ -2191,7 +5144,7 @@
         <v>93.208972481307327</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>906.36</v>
       </c>
@@ -2203,7 +5156,7 @@
         <v>93.332671344719529</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>706.58</v>
       </c>
@@ -2215,7 +5168,7 @@
         <v>93.989357185315185</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>319.27</v>
       </c>
@@ -2227,7 +5180,7 @@
         <v>93.992545494409114</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>319.12</v>
       </c>
@@ -2239,7 +5192,7 @@
         <v>94.036725996490347</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>311.01</v>
       </c>
@@ -2251,7 +5204,7 @@
         <v>94.080576187260874</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1570</v>
       </c>
@@ -2263,7 +5216,7 @@
         <v>94.212738853503183</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>308.95999999999998</v>
       </c>
@@ -2275,7 +5228,7 @@
         <v>94.704816157431395</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>319.04000000000002</v>
       </c>
@@ -2287,7 +5240,7 @@
         <v>95.655717151454354</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>428.38</v>
       </c>
@@ -2299,7 +5252,7 @@
         <v>95.765441897380839</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>408.74</v>
       </c>
@@ -2311,7 +5264,7 @@
         <v>98.182218525223846</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1070</v>
       </c>
@@ -2323,7 +5276,7 @@
         <v>99.925233644859816</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>443</v>
       </c>
@@ -2335,7 +5288,7 @@
         <v>101.14221218961626</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>668.27</v>
       </c>
@@ -2347,7 +5300,7 @@
         <v>101.93933589716733</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>426.57</v>
       </c>
@@ -2359,7 +5312,7 @@
         <v>103.74616123965585</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1520</v>
       </c>
@@ -2371,7 +5324,7 @@
         <v>103.91710526315789</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>487</v>
       </c>
@@ -2383,7 +5336,7 @@
         <v>105.59958932238193</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>679.74</v>
       </c>
@@ -2395,7 +5348,7 @@
         <v>105.97140082972902</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>685.02</v>
       </c>
@@ -2407,7 +5360,7 @@
         <v>108.92236723015387</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>546.25</v>
       </c>
@@ -2419,7 +5372,7 @@
         <v>110.41098398169336</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>423.51</v>
       </c>
@@ -2431,7 +5384,7 @@
         <v>110.52159335080636</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>815.01</v>
       </c>
@@ -2443,7 +5396,7 @@
         <v>110.70416313910259</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1370</v>
       </c>
@@ -2455,7 +5408,7 @@
         <v>110.91824817518247</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>404.32</v>
       </c>
@@ -2467,7 +5420,7 @@
         <v>111.88415116739216</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>982.06</v>
       </c>
@@ -2479,7 +5432,7 @@
         <v>114.28222308209274</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>942.79</v>
       </c>
@@ -2491,7 +5444,7 @@
         <v>114.57906850942416</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>376.4</v>
       </c>
@@ -2503,7 +5456,7 @@
         <v>114.84856535600427</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>405.91</v>
       </c>
@@ -2515,7 +5468,7 @@
         <v>115.13636027690868</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>576.71</v>
       </c>
@@ -2527,7 +5480,7 @@
         <v>115.46704582892613</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>375.23</v>
       </c>
@@ -2539,7 +5492,7 @@
         <v>115.61708818591264</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>375.68</v>
       </c>
@@ -2551,7 +5504,7 @@
         <v>115.90183134582624</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>404.72</v>
       </c>
@@ -2563,7 +5516,7 @@
         <v>115.94188574817157</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>961.19</v>
       </c>
@@ -2575,7 +5528,7 @@
         <v>116.20387228331548</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>376.92</v>
       </c>
@@ -2587,7 +5540,7 @@
         <v>116.67197283243127</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>937.93</v>
       </c>
@@ -2599,7 +5552,7 @@
         <v>117.26354845244313</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>571.39</v>
       </c>
@@ -2611,7 +5564,7 @@
         <v>117.39792435989429</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>369.82</v>
       </c>
@@ -2623,7 +5576,7 @@
         <v>117.57611811151372</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>369.33</v>
       </c>
@@ -2635,7 +5588,7 @@
         <v>117.86748977878862</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>936.89</v>
       </c>
@@ -2647,7 +5600,7 @@
         <v>118.13339879815132</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>418.72</v>
       </c>
@@ -2659,7 +5612,7 @@
         <v>119.78410393580434</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>368.89</v>
       </c>
@@ -2671,7 +5624,7 @@
         <v>119.9734338149584</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>365.73</v>
       </c>
@@ -2683,7 +5636,7 @@
         <v>120.80496541164246</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>366.16</v>
       </c>
@@ -2695,7 +5648,7 @@
         <v>121.03178938169106</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>363.63</v>
       </c>
@@ -2707,7 +5660,7 @@
         <v>121.14787008772655</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>424.09</v>
       </c>
@@ -2719,7 +5672,7 @@
         <v>121.17003466245373</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>582.55999999999995</v>
       </c>
@@ -2731,7 +5684,7 @@
         <v>121.77286459763801</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>421.65</v>
       </c>
@@ -2743,7 +5696,7 @@
         <v>121.87122020633228</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>608.72</v>
       </c>
@@ -2755,7 +5708,7 @@
         <v>123.20771454856092</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>359.44</v>
       </c>
@@ -2767,7 +5720,7 @@
         <v>123.26953038059203</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>407.64</v>
       </c>
@@ -2779,7 +5732,7 @@
         <v>123.59189480914532</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>585.29</v>
       </c>
@@ -2791,7 +5744,7 @@
         <v>124.5724341779289</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>570.09</v>
       </c>
@@ -2803,7 +5756,7 @@
         <v>124.75398621270327</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>344.72</v>
       </c>
@@ -2815,7 +5768,7 @@
         <v>125.80064980273846</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>566.5</v>
       </c>
@@ -2827,7 +5780,7 @@
         <v>125.95057369814651</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>876.26</v>
       </c>
@@ -2839,7 +5792,7 @@
         <v>126.36774473329832</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>591.39</v>
       </c>
@@ -2851,7 +5804,7 @@
         <v>127.1580513705</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>565.66</v>
       </c>
@@ -2863,7 +5816,7 @@
         <v>127.31322702683592</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>633.29</v>
       </c>
@@ -2875,7 +5828,7 @@
         <v>127.55451688799759</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>569.02</v>
       </c>
@@ -2887,7 +5840,7 @@
         <v>128.84432884608626</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>549.91</v>
       </c>
@@ -2899,7 +5852,7 @@
         <v>130.17220999799969</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>560.67999999999995</v>
       </c>
@@ -2911,7 +5864,7 @@
         <v>130.98202183063424</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>552.57000000000005</v>
       </c>
@@ -2923,7 +5876,7 @@
         <v>131.89641131440359</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>375.98</v>
       </c>
@@ -2935,7 +5888,7 @@
         <v>132.31288898345656</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>835.74</v>
       </c>
@@ -2947,7 +5900,7 @@
         <v>132.68002010194556</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>549.6</v>
       </c>
@@ -2959,7 +5912,7 @@
         <v>132.69832605531292</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>552.80999999999995</v>
       </c>
@@ -2971,7 +5924,7 @@
         <v>132.80331397767767</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>569.80999999999995</v>
       </c>
@@ -2983,7 +5936,7 @@
         <v>132.83199663045576</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>866.55</v>
       </c>
@@ -2995,7 +5948,7 @@
         <v>133.06675898678668</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>539.80999999999995</v>
       </c>
@@ -3007,7 +5960,7 @@
         <v>136.57212722995129</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>759.28</v>
       </c>
@@ -3036,9 +5989,9 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3052,7 +6005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>319.12</v>
       </c>
@@ -3066,7 +6019,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>319.27</v>
       </c>
@@ -3080,7 +6033,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>346.07</v>
       </c>
@@ -3094,7 +6047,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>319.04000000000002</v>
       </c>
@@ -3108,7 +6061,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>347.05</v>
       </c>
@@ -3122,7 +6075,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>347.25</v>
       </c>
@@ -3136,7 +6089,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>311.01</v>
       </c>
@@ -3150,7 +6103,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>308.95999999999998</v>
       </c>
@@ -3164,7 +6117,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>346.96</v>
       </c>
@@ -3178,7 +6131,7 @@
         <v>91.13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>409.24</v>
       </c>
@@ -3192,7 +6145,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>418.72</v>
       </c>
@@ -3206,7 +6159,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>421.65</v>
       </c>
@@ -3220,7 +6173,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>424.09</v>
       </c>
@@ -3234,7 +6187,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>386.58</v>
       </c>
@@ -3248,7 +6201,7 @@
         <v>97.82</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>426.57</v>
       </c>
@@ -3262,7 +6215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>443</v>
       </c>
@@ -3276,7 +6229,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>527.83000000000004</v>
       </c>
@@ -3290,7 +6243,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>428.38</v>
       </c>
@@ -3304,7 +6257,7 @@
         <v>34.53</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>408.74</v>
       </c>
@@ -3318,7 +6271,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>389.19</v>
       </c>
@@ -3332,7 +6285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>404.32</v>
       </c>
@@ -3346,7 +6299,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>694.83</v>
       </c>
@@ -3360,7 +6313,7 @@
         <v>41.09</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>964.53</v>
       </c>
@@ -3374,7 +6327,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>423.51</v>
       </c>
@@ -3388,7 +6341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>996.92</v>
       </c>
@@ -3402,7 +6355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>977.52</v>
       </c>
@@ -3416,7 +6369,7 @@
         <v>44.03</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>737.48</v>
       </c>
@@ -3430,7 +6383,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>487</v>
       </c>
@@ -3444,7 +6397,7 @@
         <v>48.07</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>546.25</v>
       </c>
@@ -3458,7 +6411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>706.58</v>
       </c>
@@ -3472,7 +6425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>407.64</v>
       </c>
@@ -3486,7 +6439,7 @@
         <v>57.38</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>375.98</v>
       </c>
@@ -3500,7 +6453,7 @@
         <v>58.33</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>668.27</v>
       </c>
@@ -3514,7 +6467,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404.72</v>
       </c>
@@ -3528,7 +6481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>679.74</v>
       </c>
@@ -3542,7 +6495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>576.71</v>
       </c>
@@ -3556,7 +6509,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>571.39</v>
       </c>
@@ -3570,7 +6523,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>896.73</v>
       </c>
@@ -3584,7 +6537,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>582.55999999999995</v>
       </c>
@@ -3598,7 +6551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1240</v>
       </c>
@@ -3612,7 +6565,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>906.36</v>
       </c>
@@ -3626,7 +6579,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>685.02</v>
       </c>
@@ -3640,7 +6593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1320</v>
       </c>
@@ -3654,7 +6607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>405.91</v>
       </c>
@@ -3668,7 +6621,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>591.39</v>
       </c>
@@ -3682,7 +6635,7 @@
         <v>67.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>633.29</v>
       </c>
@@ -3696,7 +6649,7 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>815.01</v>
       </c>
@@ -3710,7 +6663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1070</v>
       </c>
@@ -3724,7 +6677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1090</v>
       </c>
@@ -3738,7 +6691,7 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>569.80999999999995</v>
       </c>
@@ -3752,7 +6705,7 @@
         <v>81.95</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>608.72</v>
       </c>
@@ -3766,7 +6719,7 @@
         <v>84.02</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1350</v>
       </c>
@@ -3780,7 +6733,7 @@
         <v>80.349999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>759.28</v>
       </c>
@@ -3794,7 +6747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1870</v>
       </c>
@@ -3808,7 +6761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>585.29</v>
       </c>
@@ -3822,7 +6775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>866.55</v>
       </c>
@@ -3836,7 +6789,7 @@
         <v>94.15</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>359.44</v>
       </c>
@@ -3850,7 +6803,7 @@
         <v>75.55</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>876.26</v>
       </c>
@@ -3864,7 +6817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>376.4</v>
       </c>
@@ -3878,7 +6831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1520</v>
       </c>
@@ -3892,7 +6845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>363.63</v>
       </c>
@@ -3906,7 +6859,7 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>552.80999999999995</v>
       </c>
@@ -3920,7 +6873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>375.23</v>
       </c>
@@ -3934,7 +6887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>369.82</v>
       </c>
@@ -3948,7 +6901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>549.6</v>
       </c>
@@ -3962,7 +6915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>539.80999999999995</v>
       </c>
@@ -3976,7 +6929,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>376.92</v>
       </c>
@@ -3990,7 +6943,7 @@
         <v>75.92</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>365.73</v>
       </c>
@@ -4004,7 +6957,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1810</v>
       </c>
@@ -4018,7 +6971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1810</v>
       </c>
@@ -4032,7 +6985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1790</v>
       </c>
@@ -4046,7 +6999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1720</v>
       </c>
@@ -4060,7 +7013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1780</v>
       </c>
@@ -4074,7 +7027,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>982.06</v>
       </c>
@@ -4088,7 +7041,7 @@
         <v>94.28</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>552.57000000000005</v>
       </c>
@@ -4102,7 +7055,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1770</v>
       </c>
@@ -4116,7 +7069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>369.33</v>
       </c>
@@ -4130,7 +7083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>570.09</v>
       </c>
@@ -4144,7 +7097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>375.68</v>
       </c>
@@ -4158,7 +7111,7 @@
         <v>86.22</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>366.16</v>
       </c>
@@ -4172,7 +7125,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>368.89</v>
       </c>
@@ -4186,7 +7139,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>560.67999999999995</v>
       </c>
@@ -4200,7 +7153,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>566.5</v>
       </c>
@@ -4214,7 +7167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>344.72</v>
       </c>
@@ -4228,7 +7181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2940</v>
       </c>
@@ -4242,7 +7195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2860</v>
       </c>
@@ -4256,7 +7209,7 @@
         <v>97.58</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>835.74</v>
       </c>
@@ -4270,7 +7223,7 @@
         <v>94.37</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>569.02</v>
       </c>
@@ -4284,7 +7237,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2510</v>
       </c>
@@ -4298,7 +7251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1570</v>
       </c>
@@ -4312,7 +7265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>942.79</v>
       </c>
@@ -4326,7 +7279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1370</v>
       </c>
@@ -4340,7 +7293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1670</v>
       </c>
@@ -4354,7 +7307,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>961.19</v>
       </c>
@@ -4368,7 +7321,7 @@
         <v>93.32</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>936.89</v>
       </c>
@@ -4382,7 +7335,7 @@
         <v>94.35</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>549.91</v>
       </c>
@@ -4396,7 +7349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>565.66</v>
       </c>
@@ -4410,7 +7363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1750</v>
       </c>
@@ -4424,7 +7377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>937.93</v>
       </c>
@@ -4438,7 +7391,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2720</v>
       </c>
@@ -4464,12 +7417,12 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4486,7 +7439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>64</v>
       </c>
@@ -4503,7 +7456,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>64</v>
       </c>
@@ -4520,7 +7473,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>64</v>
       </c>
@@ -4537,7 +7490,7 @@
         <v>10040.76305</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>64</v>
       </c>
@@ -4554,7 +7507,7 @@
         <v>10075.903609999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>64</v>
       </c>
@@ -4571,7 +7524,7 @@
         <v>19770.596669999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>64</v>
       </c>
@@ -4588,7 +7541,7 @@
         <v>20155.880669999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>64</v>
       </c>
@@ -4605,7 +7558,7 @@
         <v>26867.76152</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>64</v>
       </c>
@@ -4622,7 +7575,7 @@
         <v>29613.386879999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>64</v>
       </c>
@@ -4639,7 +7592,7 @@
         <v>34262.344620000003</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>64</v>
       </c>
@@ -4656,7 +7609,7 @@
         <v>35566.432399999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>64</v>
       </c>
@@ -4673,7 +7626,7 @@
         <v>37801.70205</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>64</v>
       </c>
@@ -4690,7 +7643,7 @@
         <v>41910.915090000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>64</v>
       </c>
@@ -4707,7 +7660,7 @@
         <v>66403.275810000006</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>64</v>
       </c>
@@ -4724,7 +7677,7 @@
         <v>67490.91605</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>64</v>
       </c>
@@ -4741,7 +7694,7 @@
         <v>73620.572769999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>64</v>
       </c>
@@ -4758,7 +7711,7 @@
         <v>75228.571429999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>64</v>
       </c>
@@ -4775,7 +7728,7 @@
         <v>75533.649980000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>64</v>
       </c>
@@ -4792,7 +7745,7 @@
         <v>79580.679860000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64</v>
       </c>
@@ -4809,7 +7762,7 @@
         <v>79812.835760000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>64</v>
       </c>
@@ -4826,7 +7779,7 @@
         <v>82059.022270000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>64</v>
       </c>
@@ -4843,7 +7796,7 @@
         <v>83375.268209999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>64</v>
       </c>
@@ -4860,7 +7813,7 @@
         <v>85014.996780000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>64</v>
       </c>
@@ -4877,7 +7830,7 @@
         <v>86704.508979999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>64</v>
       </c>
@@ -4894,7 +7847,7 @@
         <v>88748.948340000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>128</v>
       </c>
@@ -4911,7 +7864,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>128</v>
       </c>
@@ -4928,7 +7881,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>128</v>
       </c>
@@ -4945,7 +7898,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>128</v>
       </c>
@@ -4962,7 +7915,7 @@
         <v>20010.04016</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>128</v>
       </c>
@@ -4979,7 +7932,7 @@
         <v>20014.056219999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>128</v>
       </c>
@@ -4996,7 +7949,7 @@
         <v>29979.74756</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>128</v>
       </c>
@@ -5013,7 +7966,7 @@
         <v>39890.533560000003</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>128</v>
       </c>
@@ -5030,7 +7983,7 @@
         <v>39891.537579999997</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>128</v>
       </c>
@@ -5047,7 +8000,7 @@
         <v>39995.955249999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>128</v>
       </c>
@@ -5064,7 +8017,7 @@
         <v>42260.814689999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>128</v>
       </c>
@@ -5081,7 +8034,7 @@
         <v>49657.028109999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>128</v>
       </c>
@@ -5098,7 +8051,7 @@
         <v>57042.766300000003</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>128</v>
       </c>
@@ -5115,7 +8068,7 @@
         <v>58527.954680000003</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>128</v>
       </c>
@@ -5132,7 +8085,7 @@
         <v>60468.550389999997</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>128</v>
       </c>
@@ -5149,7 +8102,7 @@
         <v>74052.91115</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>128</v>
       </c>
@@ -5166,7 +8119,7 @@
         <v>75878.332240000003</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>128</v>
       </c>
@@ -5183,7 +8136,7 @@
         <v>76018.326350000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>128</v>
       </c>
@@ -5200,7 +8153,7 @@
         <v>80584.202179999993</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>128</v>
       </c>
@@ -5217,7 +8170,7 @@
         <v>82582.022459999993</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>128</v>
       </c>
@@ -5234,7 +8187,7 @@
         <v>87072.8802</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>128</v>
       </c>
@@ -5251,7 +8204,7 @@
         <v>88560.169250000006</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>128</v>
       </c>
@@ -5268,7 +8221,7 @@
         <v>94047.0049</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>128</v>
       </c>
@@ -5285,7 +8238,7 @@
         <v>97272.103059999994</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>128</v>
       </c>
@@ -5302,7 +8255,7 @@
         <v>97355.192200000005</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>256</v>
       </c>
@@ -5319,7 +8272,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>256</v>
       </c>
@@ -5336,7 +8289,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>256</v>
       </c>
@@ -5353,7 +8306,7 @@
         <v>19824.297190000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>256</v>
       </c>
@@ -5370,7 +8323,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>256</v>
       </c>
@@ -5387,7 +8340,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>256</v>
       </c>
@@ -5404,7 +8357,7 @@
         <v>37224.0677</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>256</v>
       </c>
@@ -5421,7 +8374,7 @@
         <v>39577.911650000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>256</v>
       </c>
@@ -5438,7 +8391,7 @@
         <v>40019.210169999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>256</v>
       </c>
@@ -5455,7 +8408,7 @@
         <v>50002.008029999997</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>256</v>
       </c>
@@ -5472,7 +8425,7 @@
         <v>59977.471790000003</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>256</v>
       </c>
@@ -5489,7 +8442,7 @@
         <v>65205.886749999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>256</v>
       </c>
@@ -5506,7 +8459,7 @@
         <v>66797.204400000002</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>256</v>
       </c>
@@ -5523,7 +8476,7 @@
         <v>80373.055429999993</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>256</v>
       </c>
@@ -5540,7 +8493,7 @@
         <v>91213.924960000004</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>256</v>
       </c>
@@ -5557,7 +8510,7 @@
         <v>96053.590549999994</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>256</v>
       </c>
@@ -5574,7 +8527,7 @@
         <v>96610.948560000004</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>256</v>
       </c>
@@ -5591,7 +8544,7 @@
         <v>96895.629700000005</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>256</v>
       </c>
@@ -5608,7 +8561,7 @@
         <v>99004.603700000007</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>512</v>
       </c>
@@ -5625,7 +8578,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>512</v>
       </c>
@@ -5642,7 +8595,7 @@
         <v>28045.18072</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>512</v>
       </c>
@@ -5659,7 +8612,7 @@
         <v>29887.119910000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>512</v>
       </c>
@@ -5676,7 +8629,7 @@
         <v>30018.57908</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>512</v>
       </c>
@@ -5693,7 +8646,7 @@
         <v>39987.951809999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>512</v>
       </c>
@@ -5710,7 +8663,7 @@
         <v>40012.048190000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>512</v>
       </c>
@@ -5727,7 +8680,7 @@
         <v>50141.566270000003</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>512</v>
       </c>
@@ -5744,7 +8697,7 @@
         <v>50213.85542</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>512</v>
       </c>
@@ -5761,7 +8714,7 @@
         <v>58838.372969999997</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>512</v>
       </c>
@@ -5778,7 +8731,7 @@
         <v>69936.115890000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>512</v>
       </c>
@@ -5795,7 +8748,7 @@
         <v>79962.947029999996</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>512</v>
       </c>
@@ -5812,7 +8765,7 @@
         <v>79962.947029999996</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>512</v>
       </c>
@@ -5829,7 +8782,7 @@
         <v>80161.07286</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>512</v>
       </c>
@@ -5846,7 +8799,7 @@
         <v>80243.66992</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>512</v>
       </c>
@@ -5863,7 +8816,7 @@
         <v>80257.458410000007</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>512</v>
       </c>
@@ -5880,7 +8833,7 @@
         <v>81342.197360000006</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>512</v>
       </c>
@@ -5897,7 +8850,7 @@
         <v>95394.587880000006</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>512</v>
       </c>
@@ -5914,7 +8867,7 @@
         <v>96131.200989999998</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>512</v>
       </c>
@@ -5931,7 +8884,7 @@
         <v>96230.555559999993</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>512</v>
       </c>
@@ -5948,7 +8901,7 @@
         <v>98002.046279999995</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1024</v>
       </c>
@@ -5965,7 +8918,7 @@
         <v>10918.330459999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1024</v>
       </c>
@@ -5982,7 +8935,7 @@
         <v>18752.008030000001</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1024</v>
       </c>
@@ -5999,7 +8952,7 @@
         <v>19227.911649999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1024</v>
       </c>
@@ -6016,7 +8969,7 @@
         <v>19227.911649999998</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1024</v>
       </c>
@@ -6033,7 +8986,7 @@
         <v>29122.43259</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1024</v>
       </c>
@@ -6050,7 +9003,7 @@
         <v>29716.838779999998</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1024</v>
       </c>
@@ -6067,7 +9020,7 @@
         <v>29851.376939999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1024</v>
       </c>
@@ -6084,7 +9037,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1024</v>
       </c>
@@ -6101,7 +9054,7 @@
         <v>40048.192770000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1024</v>
       </c>
@@ -6118,7 +9071,7 @@
         <v>60047.016640000002</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1024</v>
       </c>
@@ -6135,7 +9088,7 @@
         <v>90105.253049999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1024</v>
       </c>
@@ -6152,7 +9105,7 @@
         <v>90848.578729999994</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1024</v>
       </c>
@@ -6169,7 +9122,7 @@
         <v>94122.068360000005</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1024</v>
       </c>
@@ -6197,19 +9150,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B8854-1686-4C0A-89CD-E823D6387B1C}">
-  <dimension ref="A1:F17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -6228,8 +9184,17 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18">
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>64</v>
       </c>
@@ -6245,9 +9210,29 @@
       <c r="E2" s="3">
         <v>10040.7630522088</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="18">
+      <c r="F2" s="3">
+        <v>299.68</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>(F2/B2)*100</f>
+        <v>99.893333333333331</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.NORM.DIST(H2,99.0206,31.3256,TRUE)</f>
+        <v>0.51111312124171504</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(H2:H17)</f>
+        <v>99.020578125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>64</v>
       </c>
@@ -6263,9 +9248,29 @@
       <c r="E3" s="2">
         <v>21010.441767068402</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="18">
+      <c r="F3" s="3">
+        <v>397.77</v>
+      </c>
+      <c r="G3" s="3">
+        <v>99.43</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="0">(F3/B3)*100</f>
+        <v>99.442499999999995</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="1">_xlfn.NORM.DIST(H3,99.0206,31.3256,TRUE)</f>
+        <v>0.50537287904313644</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <f>STDEV(H2:H17)</f>
+        <v>31.325564378543682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>64</v>
       </c>
@@ -6281,9 +9286,22 @@
       <c r="E4" s="2">
         <v>30795.0659781988</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
+      <c r="F4" s="3">
+        <v>499.85</v>
+      </c>
+      <c r="G4" s="3">
+        <v>55.13</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>99.97</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.51208908448885704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>64</v>
       </c>
@@ -6299,9 +9317,22 @@
       <c r="E5" s="2">
         <v>34328.973034997398</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
+      <c r="F5" s="3">
+        <v>498.97</v>
+      </c>
+      <c r="G5" s="3">
+        <v>60.43</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>83.161666666666662</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.30633667670319603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>64</v>
       </c>
@@ -6317,9 +9348,22 @@
       <c r="E6" s="2">
         <v>41477.524383247401</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
+      <c r="F6" s="3">
+        <v>448.22</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>64.031428571428577</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.13200756203681971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>64</v>
       </c>
@@ -6335,9 +9379,22 @@
       <c r="E7" s="2">
         <v>44542.641996557802</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="18">
+      <c r="F7" s="3">
+        <v>456.25</v>
+      </c>
+      <c r="G7" s="3">
+        <v>73.67</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>57.03125</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>9.0054992944837306E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>64</v>
       </c>
@@ -6353,9 +9410,22 @@
       <c r="E8" s="2">
         <v>46788.826735513801</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="18">
+      <c r="F8" s="3">
+        <v>449.09</v>
+      </c>
+      <c r="G8" s="3">
+        <v>73.72</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>49.898888888888884</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5.8428757675866146E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>64</v>
       </c>
@@ -6371,9 +9441,22 @@
       <c r="E9" s="2">
         <v>48124.713138267798</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="18">
+      <c r="F9" s="3">
+        <v>434.57</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>43.457000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>3.8052739331444742E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1024</v>
       </c>
@@ -6389,9 +9472,22 @@
       <c r="E10" s="2">
         <v>10031.124497991899</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="18">
+      <c r="F10" s="3">
+        <v>368.95</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20.68</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>122.98333333333333</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.77785139002328307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1024</v>
       </c>
@@ -6407,9 +9503,22 @@
       <c r="E11" s="2">
         <v>10248.852553069401</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="18">
+      <c r="F11" s="3">
+        <v>375.42</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>93.855000000000004</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.4345112386576212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1024</v>
       </c>
@@ -6425,9 +9534,22 @@
       <c r="E12" s="2">
         <v>25634.939759036301</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="18">
+      <c r="F12" s="3">
+        <v>649.94000000000005</v>
+      </c>
+      <c r="G12" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>129.98800000000003</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.83856205557240782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1024</v>
       </c>
@@ -6443,9 +9565,22 @@
       <c r="E13" s="2">
         <v>31460.126219162601</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="18">
+      <c r="F13" s="3">
+        <v>831.14</v>
+      </c>
+      <c r="G13" s="3">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>138.52333333333334</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.89635219953852396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1024</v>
       </c>
@@ -6461,9 +9596,22 @@
       <c r="E14" s="2">
         <v>33814.056224899898</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="18">
+      <c r="F14" s="3">
+        <v>853.64</v>
+      </c>
+      <c r="G14" s="3">
+        <v>59.12</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>121.94857142857143</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.76789264812317226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1024</v>
       </c>
@@ -6479,9 +9627,22 @@
       <c r="E15" s="2">
         <v>44239.830751577902</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="18">
+      <c r="F15" s="3">
+        <v>1045.8599999999999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>63.7</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>130.73249999999999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.84431027458297736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1024</v>
       </c>
@@ -6497,14 +9658,27 @@
       <c r="E16" s="2">
         <v>46816.537578887299</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="18">
+      <c r="F16" s="3">
+        <v>1105.24</v>
+      </c>
+      <c r="G16" s="3">
+        <v>67.53</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>122.80444444444444</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.77614736907321835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1024</v>
       </c>
       <c r="B17" s="3">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="3">
         <v>100000</v>
@@ -6515,11 +9689,25 @@
       <c r="E17" s="2">
         <v>52136.560527825997</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>1266.08</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>126.60799999999999</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.8107507668370747</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/serving/experiments/data/result_vm1.xlsx
+++ b/serving/experiments/data/result_vm1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyowonlee/Desktop/Inferencing-CPU-for-network-performance-in-virtualized-environments/serving/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECBDDDE-30C3-2940-B0B9-F228A27AE4B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E1862-18CA-8143-A28F-4BC0A28B23E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24360" windowHeight="15500" firstSheet="12" activeTab="15" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="12" activeTab="16" xr2:uid="{ED5A1819-73CF-419E-B869-E151C1356307}"/>
   </bookViews>
   <sheets>
     <sheet name="slo_throughput" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="m1+m2(bias 적용)" sheetId="19" r:id="rId14"/>
     <sheet name="m1(rmsle)" sheetId="20" r:id="rId15"/>
     <sheet name="m2(rmsle)" sheetId="21" r:id="rId16"/>
+    <sheet name="m2(55)" sheetId="22" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'m2(rmsle)'!$A$1:$A$102</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>SLO</t>
   </si>
@@ -298,6 +299,14 @@
   </si>
   <si>
     <t>avg(~10000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO CPU USAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vCPU USAGE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -58172,7 +58181,7 @@
   <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -63537,7 +63546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FD206B-04CC-DE40-85B6-660914C3EBB0}">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -65715,6 +65724,3548 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34AE314-E8C9-3248-AD9E-1108D1400378}">
+  <dimension ref="A1:F242"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1529</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>61.517099999999999</v>
+      </c>
+      <c r="E2">
+        <v>138.09</v>
+      </c>
+      <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>138.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1529</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>61.517099999999999</v>
+      </c>
+      <c r="E3">
+        <v>138.09</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F28" si="0">(E3/C3)*100</f>
+        <v>125.53636363636365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1529</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>61.517099999999999</v>
+      </c>
+      <c r="E4">
+        <v>138.09</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>115.07499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1700</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>61.230600000000003</v>
+      </c>
+      <c r="E5">
+        <v>168.19</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>129.37692307692308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1869</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+      <c r="D6">
+        <v>61.230600000000003</v>
+      </c>
+      <c r="E6">
+        <v>183.34</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>130.95714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1869</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>60.944099999999999</v>
+      </c>
+      <c r="E7">
+        <v>183.34</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>122.22666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1959</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>60.944099999999999</v>
+      </c>
+      <c r="E8">
+        <v>176.71</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>110.44374999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>2034</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>60.944099999999999</v>
+      </c>
+      <c r="E9">
+        <v>213.41</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>125.53529411764706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2834</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>60.944099999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2789</v>
+      </c>
+      <c r="B11">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>190</v>
+      </c>
+      <c r="D11">
+        <v>63.861699999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>2789</v>
+      </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>63.861699999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2924</v>
+      </c>
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>210</v>
+      </c>
+      <c r="D13">
+        <v>63.861699999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>4110</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>220</v>
+      </c>
+      <c r="D14">
+        <v>63.861699999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>4295</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>230</v>
+      </c>
+      <c r="D15">
+        <v>68.093999999999994</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>4304</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>240</v>
+      </c>
+      <c r="D16">
+        <v>86.470199999999906</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>4404</v>
+      </c>
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>81.079299999999904</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>4960</v>
+      </c>
+      <c r="B18">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>260</v>
+      </c>
+      <c r="D18">
+        <v>62.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>6129</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>270</v>
+      </c>
+      <c r="D19">
+        <v>60.35</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>7325</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>280</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>8270</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>290</v>
+      </c>
+      <c r="D21">
+        <v>60.776000000000003</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>9299</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>300</v>
+      </c>
+      <c r="D22">
+        <v>70.796199999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>9970</v>
+      </c>
+      <c r="B23">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>310</v>
+      </c>
+      <c r="D23">
+        <v>72.743199999999902</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>13120</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>320</v>
+      </c>
+      <c r="D24">
+        <v>80.957699999999903</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>14290</v>
+      </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>330</v>
+      </c>
+      <c r="D25">
+        <v>89.738299999999896</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>17780</v>
+      </c>
+      <c r="B26">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>340</v>
+      </c>
+      <c r="D26">
+        <v>78.059099999999901</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>39299</v>
+      </c>
+      <c r="B27">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>350</v>
+      </c>
+      <c r="D27">
+        <v>98.661199999999994</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>78199</v>
+      </c>
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>360</v>
+      </c>
+      <c r="D28">
+        <v>100.1918</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>91499</v>
+      </c>
+      <c r="B29">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>370</v>
+      </c>
+      <c r="D29">
+        <v>100.1863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>21699</v>
+      </c>
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>380</v>
+      </c>
+      <c r="D30">
+        <v>91.3686000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>25900</v>
+      </c>
+      <c r="B31">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>390</v>
+      </c>
+      <c r="D31">
+        <v>87.716999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>38100</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="D32">
+        <v>98.290899999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>36000</v>
+      </c>
+      <c r="B33">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>410</v>
+      </c>
+      <c r="D33">
+        <v>97.398499999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>29300</v>
+      </c>
+      <c r="B34">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>420</v>
+      </c>
+      <c r="D34">
+        <v>90.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>24599</v>
+      </c>
+      <c r="B35">
+        <v>126</v>
+      </c>
+      <c r="C35">
+        <v>430</v>
+      </c>
+      <c r="D35">
+        <v>63.871799999999901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>24599</v>
+      </c>
+      <c r="B36">
+        <v>128</v>
+      </c>
+      <c r="C36">
+        <v>440</v>
+      </c>
+      <c r="D36">
+        <v>63.537399999999899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>24599</v>
+      </c>
+      <c r="B37">
+        <v>128</v>
+      </c>
+      <c r="C37">
+        <v>450</v>
+      </c>
+      <c r="D37">
+        <v>64.279699999999906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>25299</v>
+      </c>
+      <c r="B38">
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>460</v>
+      </c>
+      <c r="D38">
+        <v>67.179099999999906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>30000</v>
+      </c>
+      <c r="B39">
+        <v>128</v>
+      </c>
+      <c r="C39">
+        <v>470</v>
+      </c>
+      <c r="D39">
+        <v>75.063999999999893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>30300</v>
+      </c>
+      <c r="B40">
+        <v>128</v>
+      </c>
+      <c r="C40">
+        <v>480</v>
+      </c>
+      <c r="D40">
+        <v>74.895799999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>38300</v>
+      </c>
+      <c r="B41">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <v>490</v>
+      </c>
+      <c r="D41">
+        <v>90.697999999999894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41999</v>
+      </c>
+      <c r="B42">
+        <v>128</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="D42">
+        <v>92.174800000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>43099</v>
+      </c>
+      <c r="B43">
+        <v>128</v>
+      </c>
+      <c r="C43">
+        <v>510</v>
+      </c>
+      <c r="D43">
+        <v>92.708500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>58700</v>
+      </c>
+      <c r="B44">
+        <v>128</v>
+      </c>
+      <c r="C44">
+        <v>520</v>
+      </c>
+      <c r="D44">
+        <v>99.947299999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>70799</v>
+      </c>
+      <c r="B45">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <v>530</v>
+      </c>
+      <c r="D45">
+        <v>100.20480000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>73899</v>
+      </c>
+      <c r="B46">
+        <v>128</v>
+      </c>
+      <c r="C46">
+        <v>540</v>
+      </c>
+      <c r="D46">
+        <v>100.19799999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>80799</v>
+      </c>
+      <c r="B47">
+        <v>128</v>
+      </c>
+      <c r="C47">
+        <v>550</v>
+      </c>
+      <c r="D47">
+        <v>100.1926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>99800</v>
+      </c>
+      <c r="B48">
+        <v>128</v>
+      </c>
+      <c r="C48">
+        <v>560</v>
+      </c>
+      <c r="D48">
+        <v>100.1961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>43599</v>
+      </c>
+      <c r="B49">
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>570</v>
+      </c>
+      <c r="D49">
+        <v>91.105799999999903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>42699</v>
+      </c>
+      <c r="B50">
+        <v>128</v>
+      </c>
+      <c r="C50">
+        <v>580</v>
+      </c>
+      <c r="D50">
+        <v>86.712500000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>49799</v>
+      </c>
+      <c r="B51">
+        <v>128</v>
+      </c>
+      <c r="C51">
+        <v>590</v>
+      </c>
+      <c r="D51">
+        <v>96.484300000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>59000</v>
+      </c>
+      <c r="B52">
+        <v>128</v>
+      </c>
+      <c r="C52">
+        <v>600</v>
+      </c>
+      <c r="D52">
+        <v>99.705099999999902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>57800</v>
+      </c>
+      <c r="B53">
+        <v>128</v>
+      </c>
+      <c r="C53">
+        <v>610</v>
+      </c>
+      <c r="D53">
+        <v>98.246099999999899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>50199</v>
+      </c>
+      <c r="B54">
+        <v>128</v>
+      </c>
+      <c r="C54">
+        <v>620</v>
+      </c>
+      <c r="D54">
+        <v>95.978199999999802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>50199</v>
+      </c>
+      <c r="B55">
+        <v>128</v>
+      </c>
+      <c r="C55">
+        <v>630</v>
+      </c>
+      <c r="D55">
+        <v>94.778899999999894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>50199</v>
+      </c>
+      <c r="B56">
+        <v>128</v>
+      </c>
+      <c r="C56">
+        <v>640</v>
+      </c>
+      <c r="D56">
+        <v>96.389799999999894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>50599</v>
+      </c>
+      <c r="B57">
+        <v>128</v>
+      </c>
+      <c r="C57">
+        <v>650</v>
+      </c>
+      <c r="D57">
+        <v>96.437699999999893</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>50699</v>
+      </c>
+      <c r="B58">
+        <v>128</v>
+      </c>
+      <c r="C58">
+        <v>660</v>
+      </c>
+      <c r="D58">
+        <v>96.437699999999893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>51399</v>
+      </c>
+      <c r="B59">
+        <v>128</v>
+      </c>
+      <c r="C59">
+        <v>670</v>
+      </c>
+      <c r="D59">
+        <v>96.184199999999905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>51599</v>
+      </c>
+      <c r="B60">
+        <v>128</v>
+      </c>
+      <c r="C60">
+        <v>680</v>
+      </c>
+      <c r="D60">
+        <v>96.185199999999895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>51599</v>
+      </c>
+      <c r="B61">
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <v>690</v>
+      </c>
+      <c r="D61">
+        <v>96.1908999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>42199</v>
+      </c>
+      <c r="B62">
+        <v>256</v>
+      </c>
+      <c r="C62">
+        <v>700</v>
+      </c>
+      <c r="D62">
+        <v>71.106800000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>42399</v>
+      </c>
+      <c r="B63">
+        <v>256</v>
+      </c>
+      <c r="C63">
+        <v>710</v>
+      </c>
+      <c r="D63">
+        <v>71.313699999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>42499</v>
+      </c>
+      <c r="B64">
+        <v>256</v>
+      </c>
+      <c r="C64">
+        <v>720</v>
+      </c>
+      <c r="D64">
+        <v>72.506600000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>42499</v>
+      </c>
+      <c r="B65">
+        <v>256</v>
+      </c>
+      <c r="C65">
+        <v>730</v>
+      </c>
+      <c r="D65">
+        <v>73.125100000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>45999</v>
+      </c>
+      <c r="B66">
+        <v>256</v>
+      </c>
+      <c r="C66">
+        <v>740</v>
+      </c>
+      <c r="D66">
+        <v>74.567999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>51699</v>
+      </c>
+      <c r="B67">
+        <v>256</v>
+      </c>
+      <c r="C67">
+        <v>750</v>
+      </c>
+      <c r="D67">
+        <v>90.188700000000097</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>52799</v>
+      </c>
+      <c r="B68">
+        <v>256</v>
+      </c>
+      <c r="C68">
+        <v>760</v>
+      </c>
+      <c r="D68">
+        <v>93.154700000000105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>52899</v>
+      </c>
+      <c r="B69">
+        <v>256</v>
+      </c>
+      <c r="C69">
+        <v>770</v>
+      </c>
+      <c r="D69">
+        <v>93.590400000000102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>50299</v>
+      </c>
+      <c r="B70">
+        <v>256</v>
+      </c>
+      <c r="C70">
+        <v>780</v>
+      </c>
+      <c r="D70">
+        <v>82.997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>51200</v>
+      </c>
+      <c r="B71">
+        <v>256</v>
+      </c>
+      <c r="C71">
+        <v>790</v>
+      </c>
+      <c r="D71">
+        <v>82.443700000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>53700</v>
+      </c>
+      <c r="B72">
+        <v>256</v>
+      </c>
+      <c r="C72">
+        <v>800</v>
+      </c>
+      <c r="D72">
+        <v>81.8613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>54600</v>
+      </c>
+      <c r="B73">
+        <v>256</v>
+      </c>
+      <c r="C73">
+        <v>810</v>
+      </c>
+      <c r="D73">
+        <v>80.735299999999896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>54600</v>
+      </c>
+      <c r="B74">
+        <v>256</v>
+      </c>
+      <c r="C74">
+        <v>820</v>
+      </c>
+      <c r="D74">
+        <v>80.877999999999901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>58700</v>
+      </c>
+      <c r="B75">
+        <v>256</v>
+      </c>
+      <c r="C75">
+        <v>830</v>
+      </c>
+      <c r="D75">
+        <v>92.981899999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>54600</v>
+      </c>
+      <c r="B76">
+        <v>256</v>
+      </c>
+      <c r="C76">
+        <v>840</v>
+      </c>
+      <c r="D76">
+        <v>82.429100000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>55300</v>
+      </c>
+      <c r="B77">
+        <v>256</v>
+      </c>
+      <c r="C77">
+        <v>850</v>
+      </c>
+      <c r="D77">
+        <v>87.351599999999905</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>93399</v>
+      </c>
+      <c r="B78">
+        <v>256</v>
+      </c>
+      <c r="C78">
+        <v>860</v>
+      </c>
+      <c r="D78">
+        <v>100.19840000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>57400</v>
+      </c>
+      <c r="B79">
+        <v>256</v>
+      </c>
+      <c r="C79">
+        <v>870</v>
+      </c>
+      <c r="D79">
+        <v>89.716200000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>71699</v>
+      </c>
+      <c r="B80">
+        <v>256</v>
+      </c>
+      <c r="C80">
+        <v>880</v>
+      </c>
+      <c r="D80">
+        <v>97.937799999999896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>64100</v>
+      </c>
+      <c r="B81">
+        <v>291</v>
+      </c>
+      <c r="C81">
+        <v>890</v>
+      </c>
+      <c r="D81">
+        <v>91.826199999999801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>40299</v>
+      </c>
+      <c r="B82">
+        <v>512</v>
+      </c>
+      <c r="C82">
+        <v>900</v>
+      </c>
+      <c r="D82">
+        <v>60.118699999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>40799</v>
+      </c>
+      <c r="B83">
+        <v>512</v>
+      </c>
+      <c r="C83">
+        <v>910</v>
+      </c>
+      <c r="D83">
+        <v>60.685199999999902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>40799</v>
+      </c>
+      <c r="B84">
+        <v>512</v>
+      </c>
+      <c r="C84">
+        <v>920</v>
+      </c>
+      <c r="D84">
+        <v>61.213549999999898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>40899</v>
+      </c>
+      <c r="B85">
+        <v>512</v>
+      </c>
+      <c r="C85">
+        <v>930</v>
+      </c>
+      <c r="D85">
+        <v>61.612949999999898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>40799</v>
+      </c>
+      <c r="B86">
+        <v>512</v>
+      </c>
+      <c r="C86">
+        <v>940</v>
+      </c>
+      <c r="D86">
+        <v>61.278049999999901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>40799</v>
+      </c>
+      <c r="B87">
+        <v>512</v>
+      </c>
+      <c r="C87">
+        <v>950</v>
+      </c>
+      <c r="D87">
+        <v>61.107249999999901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>40799</v>
+      </c>
+      <c r="B88">
+        <v>512</v>
+      </c>
+      <c r="C88">
+        <v>960</v>
+      </c>
+      <c r="D88">
+        <v>60.941049999999898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>40799</v>
+      </c>
+      <c r="B89">
+        <v>512</v>
+      </c>
+      <c r="C89">
+        <v>970</v>
+      </c>
+      <c r="D89">
+        <v>60.905949999999898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>40799</v>
+      </c>
+      <c r="B90">
+        <v>512</v>
+      </c>
+      <c r="C90">
+        <v>980</v>
+      </c>
+      <c r="D90">
+        <v>60.570749999999897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>49899</v>
+      </c>
+      <c r="B91">
+        <v>512</v>
+      </c>
+      <c r="C91">
+        <v>990</v>
+      </c>
+      <c r="D91">
+        <v>68.784116666666606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>49899</v>
+      </c>
+      <c r="B92">
+        <v>512</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92">
+        <v>69.576710000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>49899</v>
+      </c>
+      <c r="B93">
+        <v>512</v>
+      </c>
+      <c r="C93">
+        <v>1010</v>
+      </c>
+      <c r="D93">
+        <v>69.596710000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>49899</v>
+      </c>
+      <c r="B94">
+        <v>512</v>
+      </c>
+      <c r="C94">
+        <v>1020</v>
+      </c>
+      <c r="D94">
+        <v>69.308210000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>49899</v>
+      </c>
+      <c r="B95">
+        <v>512</v>
+      </c>
+      <c r="C95">
+        <v>1030</v>
+      </c>
+      <c r="D95">
+        <v>69.269409999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>49899</v>
+      </c>
+      <c r="B96">
+        <v>512</v>
+      </c>
+      <c r="C96">
+        <v>1040</v>
+      </c>
+      <c r="D96">
+        <v>69.269409999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>49899</v>
+      </c>
+      <c r="B97">
+        <v>512</v>
+      </c>
+      <c r="C97">
+        <v>1050</v>
+      </c>
+      <c r="D97">
+        <v>69.37236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>30800</v>
+      </c>
+      <c r="B98">
+        <v>1024</v>
+      </c>
+      <c r="C98">
+        <v>1060</v>
+      </c>
+      <c r="D98">
+        <v>44.593874999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>30800</v>
+      </c>
+      <c r="B99">
+        <v>1024</v>
+      </c>
+      <c r="C99">
+        <v>1070</v>
+      </c>
+      <c r="D99">
+        <v>44.593874999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>30800</v>
+      </c>
+      <c r="B100">
+        <v>1024</v>
+      </c>
+      <c r="C100">
+        <v>1080</v>
+      </c>
+      <c r="D100">
+        <v>44.593874999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>30800</v>
+      </c>
+      <c r="B101">
+        <v>1024</v>
+      </c>
+      <c r="C101">
+        <v>1090</v>
+      </c>
+      <c r="D101">
+        <v>44.593874999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>30800</v>
+      </c>
+      <c r="B102">
+        <v>1024</v>
+      </c>
+      <c r="C102">
+        <v>1100</v>
+      </c>
+      <c r="D102">
+        <v>44.593874999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>30800</v>
+      </c>
+      <c r="B103">
+        <v>1024</v>
+      </c>
+      <c r="C103">
+        <v>1110</v>
+      </c>
+      <c r="D103">
+        <v>44.787649999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>30800</v>
+      </c>
+      <c r="B104">
+        <v>1024</v>
+      </c>
+      <c r="C104">
+        <v>1120</v>
+      </c>
+      <c r="D104">
+        <v>46.05545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>31200</v>
+      </c>
+      <c r="B105">
+        <v>1024</v>
+      </c>
+      <c r="C105">
+        <v>1130</v>
+      </c>
+      <c r="D105">
+        <v>47.399450000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>40099</v>
+      </c>
+      <c r="B106">
+        <v>1024</v>
+      </c>
+      <c r="C106">
+        <v>1140</v>
+      </c>
+      <c r="D106">
+        <v>53.561039999999899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>40199</v>
+      </c>
+      <c r="B107">
+        <v>1024</v>
+      </c>
+      <c r="C107">
+        <v>1150</v>
+      </c>
+      <c r="D107">
+        <v>53.561039999999899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>40199</v>
+      </c>
+      <c r="B108">
+        <v>1024</v>
+      </c>
+      <c r="C108">
+        <v>1160</v>
+      </c>
+      <c r="D108">
+        <v>53.561039999999899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>40199</v>
+      </c>
+      <c r="B109">
+        <v>1024</v>
+      </c>
+      <c r="C109">
+        <v>1170</v>
+      </c>
+      <c r="D109">
+        <v>53.677140000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>40199</v>
+      </c>
+      <c r="B110">
+        <v>1024</v>
+      </c>
+      <c r="C110">
+        <v>1180</v>
+      </c>
+      <c r="D110">
+        <v>53.677140000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>40199</v>
+      </c>
+      <c r="B111">
+        <v>1024</v>
+      </c>
+      <c r="C111">
+        <v>1190</v>
+      </c>
+      <c r="D111">
+        <v>53.677140000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>40299</v>
+      </c>
+      <c r="B112">
+        <v>1024</v>
+      </c>
+      <c r="C112">
+        <v>1200</v>
+      </c>
+      <c r="D112">
+        <v>53.677140000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>40299</v>
+      </c>
+      <c r="B113">
+        <v>1024</v>
+      </c>
+      <c r="C113">
+        <v>1210</v>
+      </c>
+      <c r="D113">
+        <v>53.677140000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>40299</v>
+      </c>
+      <c r="B114">
+        <v>1024</v>
+      </c>
+      <c r="C114">
+        <v>1220</v>
+      </c>
+      <c r="D114">
+        <v>53.677140000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>40299</v>
+      </c>
+      <c r="B115">
+        <v>1024</v>
+      </c>
+      <c r="C115">
+        <v>1230</v>
+      </c>
+      <c r="D115">
+        <v>53.677140000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>40299</v>
+      </c>
+      <c r="B116">
+        <v>1024</v>
+      </c>
+      <c r="C116">
+        <v>1240</v>
+      </c>
+      <c r="D116">
+        <v>53.3891495238095</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>40299</v>
+      </c>
+      <c r="B117">
+        <v>1024</v>
+      </c>
+      <c r="C117">
+        <v>1250</v>
+      </c>
+      <c r="D117">
+        <v>53.451866190476103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>40299</v>
+      </c>
+      <c r="B118">
+        <v>1024</v>
+      </c>
+      <c r="C118">
+        <v>1260</v>
+      </c>
+      <c r="D118">
+        <v>53.9851211904761</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>40299</v>
+      </c>
+      <c r="B119">
+        <v>1024</v>
+      </c>
+      <c r="C119">
+        <v>1270</v>
+      </c>
+      <c r="D119">
+        <v>54.468023333333299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>40299</v>
+      </c>
+      <c r="B120">
+        <v>1024</v>
+      </c>
+      <c r="C120">
+        <v>1280</v>
+      </c>
+      <c r="D120">
+        <v>54.468023333333299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>40299</v>
+      </c>
+      <c r="B121">
+        <v>1024</v>
+      </c>
+      <c r="C121">
+        <v>1290</v>
+      </c>
+      <c r="D121">
+        <v>55.059823333333298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>40299</v>
+      </c>
+      <c r="B122">
+        <v>1024</v>
+      </c>
+      <c r="C122">
+        <v>1300</v>
+      </c>
+      <c r="D122">
+        <v>55.2043483333333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>40299</v>
+      </c>
+      <c r="B123">
+        <v>1024</v>
+      </c>
+      <c r="C123">
+        <v>1310</v>
+      </c>
+      <c r="D123">
+        <v>54.6966033333333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>40299</v>
+      </c>
+      <c r="B124">
+        <v>1024</v>
+      </c>
+      <c r="C124">
+        <v>1320</v>
+      </c>
+      <c r="D124">
+        <v>54.710103333333301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>40299</v>
+      </c>
+      <c r="B125">
+        <v>1024</v>
+      </c>
+      <c r="C125">
+        <v>1330</v>
+      </c>
+      <c r="D125">
+        <v>55.477260000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>40299</v>
+      </c>
+      <c r="B126">
+        <v>1024</v>
+      </c>
+      <c r="C126">
+        <v>1340</v>
+      </c>
+      <c r="D126">
+        <v>56.604950000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>40299</v>
+      </c>
+      <c r="B127">
+        <v>1024</v>
+      </c>
+      <c r="C127">
+        <v>1350</v>
+      </c>
+      <c r="D127">
+        <v>57.017016666666699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>40299</v>
+      </c>
+      <c r="B128">
+        <v>1024</v>
+      </c>
+      <c r="C128">
+        <v>1360</v>
+      </c>
+      <c r="D128">
+        <v>57.387416666666603</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>40299</v>
+      </c>
+      <c r="B129">
+        <v>1024</v>
+      </c>
+      <c r="C129">
+        <v>1370</v>
+      </c>
+      <c r="D129">
+        <v>57.387416666666603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>40299</v>
+      </c>
+      <c r="B130">
+        <v>1024</v>
+      </c>
+      <c r="C130">
+        <v>1380</v>
+      </c>
+      <c r="D130">
+        <v>57.387416666666603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>40299</v>
+      </c>
+      <c r="B131">
+        <v>1024</v>
+      </c>
+      <c r="C131">
+        <v>1390</v>
+      </c>
+      <c r="D131">
+        <v>57.549216666666702</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>40299</v>
+      </c>
+      <c r="B132">
+        <v>1024</v>
+      </c>
+      <c r="C132">
+        <v>1400</v>
+      </c>
+      <c r="D132">
+        <v>57.645316666666702</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>40399</v>
+      </c>
+      <c r="B133">
+        <v>1024</v>
+      </c>
+      <c r="C133">
+        <v>1410</v>
+      </c>
+      <c r="D133">
+        <v>59.302983333333302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>46599</v>
+      </c>
+      <c r="B134">
+        <v>1024</v>
+      </c>
+      <c r="C134">
+        <v>1420</v>
+      </c>
+      <c r="D134">
+        <v>62.1038833333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>46599</v>
+      </c>
+      <c r="B135">
+        <v>1024</v>
+      </c>
+      <c r="C135">
+        <v>1430</v>
+      </c>
+      <c r="D135">
+        <v>62.1038833333333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>47199</v>
+      </c>
+      <c r="B136">
+        <v>1024</v>
+      </c>
+      <c r="C136">
+        <v>1440</v>
+      </c>
+      <c r="D136">
+        <v>62.744900000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>49799</v>
+      </c>
+      <c r="B137">
+        <v>1024</v>
+      </c>
+      <c r="C137">
+        <v>1450</v>
+      </c>
+      <c r="D137">
+        <v>63.343299999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>50099</v>
+      </c>
+      <c r="B138">
+        <v>1024</v>
+      </c>
+      <c r="C138">
+        <v>1460</v>
+      </c>
+      <c r="D138">
+        <v>63.864600000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>50099</v>
+      </c>
+      <c r="B139">
+        <v>1024</v>
+      </c>
+      <c r="C139">
+        <v>1470</v>
+      </c>
+      <c r="D139">
+        <v>63.864600000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>50099</v>
+      </c>
+      <c r="B140">
+        <v>1024</v>
+      </c>
+      <c r="C140">
+        <v>1480</v>
+      </c>
+      <c r="D140">
+        <v>63.864600000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>50099</v>
+      </c>
+      <c r="B141">
+        <v>1024</v>
+      </c>
+      <c r="C141">
+        <v>1490</v>
+      </c>
+      <c r="D141">
+        <v>64.142700000000005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>50099</v>
+      </c>
+      <c r="B142">
+        <v>1024</v>
+      </c>
+      <c r="C142">
+        <v>1500</v>
+      </c>
+      <c r="D142">
+        <v>64.142700000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>50099</v>
+      </c>
+      <c r="B143">
+        <v>1024</v>
+      </c>
+      <c r="C143">
+        <v>1510</v>
+      </c>
+      <c r="D143">
+        <v>64.142700000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>50099</v>
+      </c>
+      <c r="B144">
+        <v>1024</v>
+      </c>
+      <c r="C144">
+        <v>1520</v>
+      </c>
+      <c r="D144">
+        <v>64.6935</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>50099</v>
+      </c>
+      <c r="B145">
+        <v>1024</v>
+      </c>
+      <c r="C145">
+        <v>1530</v>
+      </c>
+      <c r="D145">
+        <v>65.383099999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>50099</v>
+      </c>
+      <c r="B146">
+        <v>1024</v>
+      </c>
+      <c r="C146">
+        <v>1540</v>
+      </c>
+      <c r="D146">
+        <v>65.504999999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>50099</v>
+      </c>
+      <c r="B147">
+        <v>1024</v>
+      </c>
+      <c r="C147">
+        <v>1550</v>
+      </c>
+      <c r="D147">
+        <v>65.504999999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>50199</v>
+      </c>
+      <c r="B148">
+        <v>1024</v>
+      </c>
+      <c r="C148">
+        <v>1560</v>
+      </c>
+      <c r="D148">
+        <v>65.703399999999903</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>50199</v>
+      </c>
+      <c r="B149">
+        <v>1024</v>
+      </c>
+      <c r="C149">
+        <v>1570</v>
+      </c>
+      <c r="D149">
+        <v>65.692599999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>50099</v>
+      </c>
+      <c r="B150">
+        <v>1024</v>
+      </c>
+      <c r="C150">
+        <v>1580</v>
+      </c>
+      <c r="D150">
+        <v>65.594899999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>50199</v>
+      </c>
+      <c r="B151">
+        <v>1024</v>
+      </c>
+      <c r="C151">
+        <v>1590</v>
+      </c>
+      <c r="D151">
+        <v>66.096299999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>50099</v>
+      </c>
+      <c r="B152">
+        <v>1024</v>
+      </c>
+      <c r="C152">
+        <v>1600</v>
+      </c>
+      <c r="D152">
+        <v>65.535699999999906</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>50099</v>
+      </c>
+      <c r="B153">
+        <v>1024</v>
+      </c>
+      <c r="C153">
+        <v>1610</v>
+      </c>
+      <c r="D153">
+        <v>65.182299999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>50199</v>
+      </c>
+      <c r="B154">
+        <v>1024</v>
+      </c>
+      <c r="C154">
+        <v>1620</v>
+      </c>
+      <c r="D154">
+        <v>65.725899999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>50099</v>
+      </c>
+      <c r="B155">
+        <v>1024</v>
+      </c>
+      <c r="C155">
+        <v>1630</v>
+      </c>
+      <c r="D155">
+        <v>65.454899999999995</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>50099</v>
+      </c>
+      <c r="B156">
+        <v>1024</v>
+      </c>
+      <c r="C156">
+        <v>1640</v>
+      </c>
+      <c r="D156">
+        <v>65.358899999999906</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>50099</v>
+      </c>
+      <c r="B157">
+        <v>1024</v>
+      </c>
+      <c r="C157">
+        <v>1650</v>
+      </c>
+      <c r="D157">
+        <v>65.358899999999906</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>50099</v>
+      </c>
+      <c r="B158">
+        <v>1024</v>
+      </c>
+      <c r="C158">
+        <v>1660</v>
+      </c>
+      <c r="D158">
+        <v>65.358899999999906</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>50099</v>
+      </c>
+      <c r="B159">
+        <v>1024</v>
+      </c>
+      <c r="C159">
+        <v>1670</v>
+      </c>
+      <c r="D159">
+        <v>65.358899999999906</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>50199</v>
+      </c>
+      <c r="B160">
+        <v>1024</v>
+      </c>
+      <c r="C160">
+        <v>1680</v>
+      </c>
+      <c r="D160">
+        <v>65.798599999999894</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>50199</v>
+      </c>
+      <c r="B161">
+        <v>1024</v>
+      </c>
+      <c r="C161">
+        <v>1690</v>
+      </c>
+      <c r="D161">
+        <v>65.798599999999894</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>50199</v>
+      </c>
+      <c r="B162">
+        <v>1024</v>
+      </c>
+      <c r="C162">
+        <v>1700</v>
+      </c>
+      <c r="D162">
+        <v>65.798599999999894</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>50199</v>
+      </c>
+      <c r="B163">
+        <v>1024</v>
+      </c>
+      <c r="C163">
+        <v>1710</v>
+      </c>
+      <c r="D163">
+        <v>65.884299999999897</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>50399</v>
+      </c>
+      <c r="B164">
+        <v>1024</v>
+      </c>
+      <c r="C164">
+        <v>1720</v>
+      </c>
+      <c r="D164">
+        <v>67.278099999999895</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>50399</v>
+      </c>
+      <c r="B165">
+        <v>1024</v>
+      </c>
+      <c r="C165">
+        <v>1730</v>
+      </c>
+      <c r="D165">
+        <v>67.291699999999906</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>51499</v>
+      </c>
+      <c r="B166">
+        <v>1024</v>
+      </c>
+      <c r="C166">
+        <v>1740</v>
+      </c>
+      <c r="D166">
+        <v>72.289499999999904</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>51499</v>
+      </c>
+      <c r="B167">
+        <v>1024</v>
+      </c>
+      <c r="C167">
+        <v>1750</v>
+      </c>
+      <c r="D167">
+        <v>72.752499999999898</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>51600</v>
+      </c>
+      <c r="B168">
+        <v>1024</v>
+      </c>
+      <c r="C168">
+        <v>1760</v>
+      </c>
+      <c r="D168">
+        <v>73.093099999999893</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>59800</v>
+      </c>
+      <c r="B169">
+        <v>1024</v>
+      </c>
+      <c r="C169">
+        <v>1770</v>
+      </c>
+      <c r="D169">
+        <v>75.266099999999895</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>59900</v>
+      </c>
+      <c r="B170">
+        <v>1024</v>
+      </c>
+      <c r="C170">
+        <v>1780</v>
+      </c>
+      <c r="D170">
+        <v>75.9528999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>60000</v>
+      </c>
+      <c r="B171">
+        <v>1024</v>
+      </c>
+      <c r="C171">
+        <v>1790</v>
+      </c>
+      <c r="D171">
+        <v>76.076999999999899</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>60000</v>
+      </c>
+      <c r="B172">
+        <v>1024</v>
+      </c>
+      <c r="C172">
+        <v>1800</v>
+      </c>
+      <c r="D172">
+        <v>76.076999999999899</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>60000</v>
+      </c>
+      <c r="B173">
+        <v>1024</v>
+      </c>
+      <c r="C173">
+        <v>1810</v>
+      </c>
+      <c r="D173">
+        <v>76.072049999999905</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>59800</v>
+      </c>
+      <c r="B174">
+        <v>1024</v>
+      </c>
+      <c r="C174">
+        <v>1820</v>
+      </c>
+      <c r="D174">
+        <v>75.852599999999896</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>59800</v>
+      </c>
+      <c r="B175">
+        <v>1024</v>
+      </c>
+      <c r="C175">
+        <v>1830</v>
+      </c>
+      <c r="D175">
+        <v>75.852599999999896</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>59800</v>
+      </c>
+      <c r="B176">
+        <v>1024</v>
+      </c>
+      <c r="C176">
+        <v>1840</v>
+      </c>
+      <c r="D176">
+        <v>75.852599999999896</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>60000</v>
+      </c>
+      <c r="B177">
+        <v>1024</v>
+      </c>
+      <c r="C177">
+        <v>1850</v>
+      </c>
+      <c r="D177">
+        <v>76.4846</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>60000</v>
+      </c>
+      <c r="B178">
+        <v>1024</v>
+      </c>
+      <c r="C178">
+        <v>1860</v>
+      </c>
+      <c r="D178">
+        <v>76.634600000000006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>60000</v>
+      </c>
+      <c r="B179">
+        <v>1024</v>
+      </c>
+      <c r="C179">
+        <v>1870</v>
+      </c>
+      <c r="D179">
+        <v>76.533000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>60000</v>
+      </c>
+      <c r="B180">
+        <v>1024</v>
+      </c>
+      <c r="C180">
+        <v>1880</v>
+      </c>
+      <c r="D180">
+        <v>76.629599999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>60000</v>
+      </c>
+      <c r="B181">
+        <v>1024</v>
+      </c>
+      <c r="C181">
+        <v>1890</v>
+      </c>
+      <c r="D181">
+        <v>76.481099999999898</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>60000</v>
+      </c>
+      <c r="B182">
+        <v>1024</v>
+      </c>
+      <c r="C182">
+        <v>1900</v>
+      </c>
+      <c r="D182">
+        <v>76.561799999999906</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>60000</v>
+      </c>
+      <c r="B183">
+        <v>1024</v>
+      </c>
+      <c r="C183">
+        <v>1910</v>
+      </c>
+      <c r="D183">
+        <v>77.003799999999899</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>60000</v>
+      </c>
+      <c r="B184">
+        <v>1024</v>
+      </c>
+      <c r="C184">
+        <v>1920</v>
+      </c>
+      <c r="D184">
+        <v>77.079099999999897</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>60000</v>
+      </c>
+      <c r="B185">
+        <v>1024</v>
+      </c>
+      <c r="C185">
+        <v>1930</v>
+      </c>
+      <c r="D185">
+        <v>76.794099999999901</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>60000</v>
+      </c>
+      <c r="B186">
+        <v>1024</v>
+      </c>
+      <c r="C186">
+        <v>1940</v>
+      </c>
+      <c r="D186">
+        <v>76.6143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>60000</v>
+      </c>
+      <c r="B187">
+        <v>1024</v>
+      </c>
+      <c r="C187">
+        <v>1950</v>
+      </c>
+      <c r="D187">
+        <v>76.6143</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>60000</v>
+      </c>
+      <c r="B188">
+        <v>1024</v>
+      </c>
+      <c r="C188">
+        <v>1960</v>
+      </c>
+      <c r="D188">
+        <v>76.586500000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>60000</v>
+      </c>
+      <c r="B189">
+        <v>1024</v>
+      </c>
+      <c r="C189">
+        <v>1970</v>
+      </c>
+      <c r="D189">
+        <v>76.609499999999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>60000</v>
+      </c>
+      <c r="B190">
+        <v>1024</v>
+      </c>
+      <c r="C190">
+        <v>1980</v>
+      </c>
+      <c r="D190">
+        <v>76.609499999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>60000</v>
+      </c>
+      <c r="B191">
+        <v>1024</v>
+      </c>
+      <c r="C191">
+        <v>1990</v>
+      </c>
+      <c r="D191">
+        <v>76.609499999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>60000</v>
+      </c>
+      <c r="B192">
+        <v>1024</v>
+      </c>
+      <c r="C192">
+        <v>2000</v>
+      </c>
+      <c r="D192">
+        <v>76.609499999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>60000</v>
+      </c>
+      <c r="B193">
+        <v>1024</v>
+      </c>
+      <c r="C193">
+        <v>2010</v>
+      </c>
+      <c r="D193">
+        <v>76.609499999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>60000</v>
+      </c>
+      <c r="B194">
+        <v>1024</v>
+      </c>
+      <c r="C194">
+        <v>2020</v>
+      </c>
+      <c r="D194">
+        <v>76.585400000000007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>60000</v>
+      </c>
+      <c r="B195">
+        <v>1024</v>
+      </c>
+      <c r="C195">
+        <v>2030</v>
+      </c>
+      <c r="D195">
+        <v>76.488900000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>60000</v>
+      </c>
+      <c r="B196">
+        <v>1024</v>
+      </c>
+      <c r="C196">
+        <v>2040</v>
+      </c>
+      <c r="D196">
+        <v>76.486400000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>60000</v>
+      </c>
+      <c r="B197">
+        <v>1024</v>
+      </c>
+      <c r="C197">
+        <v>2050</v>
+      </c>
+      <c r="D197">
+        <v>76.313299999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>60000</v>
+      </c>
+      <c r="B198">
+        <v>1024</v>
+      </c>
+      <c r="C198">
+        <v>2060</v>
+      </c>
+      <c r="D198">
+        <v>76.313299999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>60000</v>
+      </c>
+      <c r="B199">
+        <v>1024</v>
+      </c>
+      <c r="C199">
+        <v>2070</v>
+      </c>
+      <c r="D199">
+        <v>76.311900000000094</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>60000</v>
+      </c>
+      <c r="B200">
+        <v>1024</v>
+      </c>
+      <c r="C200">
+        <v>2080</v>
+      </c>
+      <c r="D200">
+        <v>76.311900000000094</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>60000</v>
+      </c>
+      <c r="B201">
+        <v>1024</v>
+      </c>
+      <c r="C201">
+        <v>2090</v>
+      </c>
+      <c r="D201">
+        <v>76.311900000000094</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>60000</v>
+      </c>
+      <c r="B202">
+        <v>1024</v>
+      </c>
+      <c r="C202">
+        <v>2100</v>
+      </c>
+      <c r="D202">
+        <v>76.311900000000094</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>60000</v>
+      </c>
+      <c r="B203">
+        <v>1024</v>
+      </c>
+      <c r="C203">
+        <v>2110</v>
+      </c>
+      <c r="D203">
+        <v>76.311900000000094</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>60000</v>
+      </c>
+      <c r="B204">
+        <v>1024</v>
+      </c>
+      <c r="C204">
+        <v>2120</v>
+      </c>
+      <c r="D204">
+        <v>76.397199999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>60000</v>
+      </c>
+      <c r="B205">
+        <v>1024</v>
+      </c>
+      <c r="C205">
+        <v>2130</v>
+      </c>
+      <c r="D205">
+        <v>76.509</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>60000</v>
+      </c>
+      <c r="B206">
+        <v>1024</v>
+      </c>
+      <c r="C206">
+        <v>2140</v>
+      </c>
+      <c r="D206">
+        <v>76.891400000000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>60000</v>
+      </c>
+      <c r="B207">
+        <v>1024</v>
+      </c>
+      <c r="C207">
+        <v>2150</v>
+      </c>
+      <c r="D207">
+        <v>77.261200000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>60000</v>
+      </c>
+      <c r="B208">
+        <v>1024</v>
+      </c>
+      <c r="C208">
+        <v>2160</v>
+      </c>
+      <c r="D208">
+        <v>77.366200000000006</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>60000</v>
+      </c>
+      <c r="B209">
+        <v>1024</v>
+      </c>
+      <c r="C209">
+        <v>2170</v>
+      </c>
+      <c r="D209">
+        <v>77.366200000000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>60000</v>
+      </c>
+      <c r="B210">
+        <v>1024</v>
+      </c>
+      <c r="C210">
+        <v>2180</v>
+      </c>
+      <c r="D210">
+        <v>77.366200000000006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>60000</v>
+      </c>
+      <c r="B211">
+        <v>1024</v>
+      </c>
+      <c r="C211">
+        <v>2190</v>
+      </c>
+      <c r="D211">
+        <v>77.366200000000006</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>60000</v>
+      </c>
+      <c r="B212">
+        <v>1024</v>
+      </c>
+      <c r="C212">
+        <v>2200</v>
+      </c>
+      <c r="D212">
+        <v>77.7226</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>60000</v>
+      </c>
+      <c r="B213">
+        <v>1024</v>
+      </c>
+      <c r="C213">
+        <v>2210</v>
+      </c>
+      <c r="D213">
+        <v>77.8172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>60100</v>
+      </c>
+      <c r="B214">
+        <v>1024</v>
+      </c>
+      <c r="C214">
+        <v>2220</v>
+      </c>
+      <c r="D214">
+        <v>81.876100000000093</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>60100</v>
+      </c>
+      <c r="B215">
+        <v>1024</v>
+      </c>
+      <c r="C215">
+        <v>2230</v>
+      </c>
+      <c r="D215">
+        <v>84.081699999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>60100</v>
+      </c>
+      <c r="B216">
+        <v>1024</v>
+      </c>
+      <c r="C216">
+        <v>2240</v>
+      </c>
+      <c r="D216">
+        <v>84.5304</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>60200</v>
+      </c>
+      <c r="B217">
+        <v>1024</v>
+      </c>
+      <c r="C217">
+        <v>2250</v>
+      </c>
+      <c r="D217">
+        <v>85.519900000000007</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>60200</v>
+      </c>
+      <c r="B218">
+        <v>1024</v>
+      </c>
+      <c r="C218">
+        <v>2260</v>
+      </c>
+      <c r="D218">
+        <v>85.519900000000007</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>60300</v>
+      </c>
+      <c r="B219">
+        <v>1024</v>
+      </c>
+      <c r="C219">
+        <v>2270</v>
+      </c>
+      <c r="D219">
+        <v>85.653899999999993</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>60300</v>
+      </c>
+      <c r="B220">
+        <v>1024</v>
+      </c>
+      <c r="C220">
+        <v>2280</v>
+      </c>
+      <c r="D220">
+        <v>85.653899999999993</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>60300</v>
+      </c>
+      <c r="B221">
+        <v>1024</v>
+      </c>
+      <c r="C221">
+        <v>2290</v>
+      </c>
+      <c r="D221">
+        <v>85.653899999999993</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>60300</v>
+      </c>
+      <c r="B222">
+        <v>1024</v>
+      </c>
+      <c r="C222">
+        <v>2300</v>
+      </c>
+      <c r="D222">
+        <v>85.824399999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>61600</v>
+      </c>
+      <c r="B223">
+        <v>1024</v>
+      </c>
+      <c r="C223">
+        <v>2310</v>
+      </c>
+      <c r="D223">
+        <v>86.2624</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>61600</v>
+      </c>
+      <c r="B224">
+        <v>1024</v>
+      </c>
+      <c r="C224">
+        <v>2320</v>
+      </c>
+      <c r="D224">
+        <v>86.688699999999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>61600</v>
+      </c>
+      <c r="B225">
+        <v>1024</v>
+      </c>
+      <c r="C225">
+        <v>2330</v>
+      </c>
+      <c r="D225">
+        <v>87.171499999999995</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>61800</v>
+      </c>
+      <c r="B226">
+        <v>1024</v>
+      </c>
+      <c r="C226">
+        <v>2340</v>
+      </c>
+      <c r="D226">
+        <v>87.763000000000005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>61800</v>
+      </c>
+      <c r="B227">
+        <v>1024</v>
+      </c>
+      <c r="C227">
+        <v>2350</v>
+      </c>
+      <c r="D227">
+        <v>88.229199999999906</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>62000</v>
+      </c>
+      <c r="B228">
+        <v>1024</v>
+      </c>
+      <c r="C228">
+        <v>2360</v>
+      </c>
+      <c r="D228">
+        <v>88.961099999999902</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>62000</v>
+      </c>
+      <c r="B229">
+        <v>1024</v>
+      </c>
+      <c r="C229">
+        <v>2370</v>
+      </c>
+      <c r="D229">
+        <v>89.104299999999895</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>62600</v>
+      </c>
+      <c r="B230">
+        <v>1024</v>
+      </c>
+      <c r="C230">
+        <v>2380</v>
+      </c>
+      <c r="D230">
+        <v>89.556099999999901</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>71199</v>
+      </c>
+      <c r="B231">
+        <v>1024</v>
+      </c>
+      <c r="C231">
+        <v>2390</v>
+      </c>
+      <c r="D231">
+        <v>90.234099999999899</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>71199</v>
+      </c>
+      <c r="B232">
+        <v>1024</v>
+      </c>
+      <c r="C232">
+        <v>2400</v>
+      </c>
+      <c r="D232">
+        <v>90.234099999999899</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>71299</v>
+      </c>
+      <c r="B233">
+        <v>1024</v>
+      </c>
+      <c r="C233">
+        <v>2410</v>
+      </c>
+      <c r="D233">
+        <v>90.455733333333299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>71499</v>
+      </c>
+      <c r="B234">
+        <v>1024</v>
+      </c>
+      <c r="C234">
+        <v>2420</v>
+      </c>
+      <c r="D234">
+        <v>90.9586166666666</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>71899</v>
+      </c>
+      <c r="B235">
+        <v>1024</v>
+      </c>
+      <c r="C235">
+        <v>2430</v>
+      </c>
+      <c r="D235">
+        <v>91.281724999999994</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>71899</v>
+      </c>
+      <c r="B236">
+        <v>1024</v>
+      </c>
+      <c r="C236">
+        <v>2440</v>
+      </c>
+      <c r="D236">
+        <v>91.645316666666702</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>71899</v>
+      </c>
+      <c r="B237">
+        <v>1024</v>
+      </c>
+      <c r="C237">
+        <v>2450</v>
+      </c>
+      <c r="D237">
+        <v>91.650716666666696</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>71899</v>
+      </c>
+      <c r="B238">
+        <v>1024</v>
+      </c>
+      <c r="C238">
+        <v>2460</v>
+      </c>
+      <c r="D238">
+        <v>93.4349633333333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>71899</v>
+      </c>
+      <c r="B239">
+        <v>1024</v>
+      </c>
+      <c r="C239">
+        <v>2470</v>
+      </c>
+      <c r="D239">
+        <v>93.454963333333296</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>72099</v>
+      </c>
+      <c r="B240">
+        <v>1024</v>
+      </c>
+      <c r="C240">
+        <v>2480</v>
+      </c>
+      <c r="D240">
+        <v>94.030463333333302</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>71899</v>
+      </c>
+      <c r="B241">
+        <v>1024</v>
+      </c>
+      <c r="C241">
+        <v>2490</v>
+      </c>
+      <c r="D241">
+        <v>93.939799999999906</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>77799</v>
+      </c>
+      <c r="B242">
+        <v>1024</v>
+      </c>
+      <c r="C242">
+        <v>2500</v>
+      </c>
+      <c r="D242">
+        <v>98.445300000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
